--- a/database/industries/ghaza/gheshahdab/product/monthly_seprated.xlsx
+++ b/database/industries/ghaza/gheshahdab/product/monthly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\gheshahdab\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7BB662-D131-4B65-829C-5C4760998FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2558" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2532" uniqueCount="91">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -186,6 +184,9 @@
     <t>ماه 8 منتهی به 1401/08</t>
   </si>
   <si>
+    <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>مقدار تولید داخلی</t>
   </si>
   <si>
@@ -297,7 +298,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -490,7 +491,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -502,7 +503,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -549,6 +550,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -584,6 +602,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -735,17 +770,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -800,7 +835,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -857,7 +892,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -914,7 +949,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -969,7 +1004,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1026,7 +1061,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1083,7 +1118,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1138,7 +1173,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1295,7 +1330,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1350,7 +1385,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1407,7 +1442,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1475,98 +1510,98 @@
       <c r="X11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y11" s="11" t="s">
-        <v>58</v>
+      <c r="Y11" s="11">
+        <v>46</v>
       </c>
       <c r="Z11" s="11">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AA11" s="11">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AB11" s="11">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="11">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="AD11" s="11">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="AE11" s="11">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AF11" s="11">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="AG11" s="11">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="AH11" s="11">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="AI11" s="11">
-        <v>23</v>
+        <v>356</v>
       </c>
       <c r="AJ11" s="11">
-        <v>356</v>
+        <v>239</v>
       </c>
       <c r="AK11" s="11">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="AL11" s="11">
-        <v>219</v>
+        <v>173</v>
       </c>
       <c r="AM11" s="11">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="AN11" s="11">
-        <v>139</v>
+        <v>306</v>
       </c>
       <c r="AO11" s="11">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="AP11" s="11">
-        <v>329</v>
+        <v>275</v>
       </c>
       <c r="AQ11" s="11">
-        <v>275</v>
+        <v>146</v>
       </c>
       <c r="AR11" s="11">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="AS11" s="11">
-        <v>94</v>
+        <v>236</v>
       </c>
       <c r="AT11" s="11">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="AU11" s="11">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AV11" s="11">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AW11" s="11">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AX11" s="11">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="AY11" s="11">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AZ11" s="11">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="BA11" s="11">
-        <v>97</v>
+        <v>613</v>
       </c>
       <c r="BB11" s="11">
-        <v>613</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1634,72 +1669,72 @@
       <c r="X12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y12" s="13" t="s">
-        <v>58</v>
+      <c r="Y12" s="13">
+        <v>957</v>
       </c>
       <c r="Z12" s="13">
-        <v>957</v>
+        <v>1686</v>
       </c>
       <c r="AA12" s="13">
-        <v>1686</v>
+        <v>7720</v>
       </c>
       <c r="AB12" s="13">
-        <v>7720</v>
+        <v>5273</v>
       </c>
       <c r="AC12" s="13">
-        <v>5273</v>
+        <v>584</v>
       </c>
       <c r="AD12" s="13">
-        <v>584</v>
+        <v>444</v>
       </c>
       <c r="AE12" s="13">
-        <v>444</v>
+        <v>272</v>
       </c>
       <c r="AF12" s="13">
-        <v>272</v>
+        <v>409</v>
       </c>
       <c r="AG12" s="13">
-        <v>409</v>
+        <v>50</v>
       </c>
       <c r="AH12" s="13">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AI12" s="13">
-        <v>0</v>
+        <v>559</v>
       </c>
       <c r="AJ12" s="13">
-        <v>559</v>
+        <v>655</v>
       </c>
       <c r="AK12" s="13">
-        <v>655</v>
+        <v>554</v>
       </c>
       <c r="AL12" s="13">
-        <v>554</v>
+        <v>965</v>
       </c>
       <c r="AM12" s="13">
-        <v>965</v>
+        <v>5260</v>
       </c>
       <c r="AN12" s="13">
-        <v>5260</v>
+        <v>2243</v>
       </c>
       <c r="AO12" s="13">
-        <v>2243</v>
+        <v>1153</v>
       </c>
       <c r="AP12" s="13">
-        <v>1153</v>
+        <v>319</v>
       </c>
       <c r="AQ12" s="13">
-        <v>319</v>
+        <v>959</v>
       </c>
       <c r="AR12" s="13">
-        <v>959</v>
+        <v>170</v>
       </c>
       <c r="AS12" s="13">
-        <v>170</v>
-      </c>
-      <c r="AT12" s="13">
         <v>725</v>
       </c>
+      <c r="AT12" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AU12" s="13" t="s">
         <v>58</v>
       </c>
@@ -1725,7 +1760,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1793,72 +1828,72 @@
       <c r="X13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y13" s="11" t="s">
-        <v>58</v>
+      <c r="Y13" s="11">
+        <v>847</v>
       </c>
       <c r="Z13" s="11">
-        <v>847</v>
+        <v>410</v>
       </c>
       <c r="AA13" s="11">
-        <v>410</v>
+        <v>836</v>
       </c>
       <c r="AB13" s="11">
-        <v>836</v>
+        <v>813</v>
       </c>
       <c r="AC13" s="11">
-        <v>813</v>
+        <v>756</v>
       </c>
       <c r="AD13" s="11">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="AE13" s="11">
-        <v>764</v>
+        <v>1051</v>
       </c>
       <c r="AF13" s="11">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="AG13" s="11">
-        <v>1048</v>
+        <v>1171</v>
       </c>
       <c r="AH13" s="11">
-        <v>1171</v>
+        <v>843</v>
       </c>
       <c r="AI13" s="11">
-        <v>843</v>
+        <v>786</v>
       </c>
       <c r="AJ13" s="11">
-        <v>786</v>
+        <v>606</v>
       </c>
       <c r="AK13" s="11">
-        <v>606</v>
+        <v>543</v>
       </c>
       <c r="AL13" s="11">
-        <v>543</v>
+        <v>713</v>
       </c>
       <c r="AM13" s="11">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="AN13" s="11">
-        <v>721</v>
+        <v>805</v>
       </c>
       <c r="AO13" s="11">
-        <v>805</v>
+        <v>1197</v>
       </c>
       <c r="AP13" s="11">
-        <v>1197</v>
+        <v>887</v>
       </c>
       <c r="AQ13" s="11">
-        <v>887</v>
+        <v>1529</v>
       </c>
       <c r="AR13" s="11">
-        <v>1529</v>
+        <v>1027</v>
       </c>
       <c r="AS13" s="11">
-        <v>1027</v>
-      </c>
-      <c r="AT13" s="11">
         <v>1110</v>
       </c>
+      <c r="AT13" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU13" s="11" t="s">
         <v>58</v>
       </c>
@@ -1884,7 +1919,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -2015,8 +2050,8 @@
       <c r="AS14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT14" s="13" t="s">
-        <v>58</v>
+      <c r="AT14" s="13">
+        <v>0</v>
       </c>
       <c r="AU14" s="13">
         <v>0</v>
@@ -2028,22 +2063,22 @@
         <v>0</v>
       </c>
       <c r="AX14" s="13">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="AY14" s="13">
-        <v>228</v>
+        <v>2143</v>
       </c>
       <c r="AZ14" s="13">
-        <v>2143</v>
+        <v>4102</v>
       </c>
       <c r="BA14" s="13">
-        <v>4102</v>
+        <v>402</v>
       </c>
       <c r="BB14" s="13">
-        <v>402</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2111,8 +2146,8 @@
       <c r="X15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y15" s="11" t="s">
-        <v>58</v>
+      <c r="Y15" s="11">
+        <v>0</v>
       </c>
       <c r="Z15" s="11">
         <v>0</v>
@@ -2138,8 +2173,8 @@
       <c r="AG15" s="11">
         <v>0</v>
       </c>
-      <c r="AH15" s="11">
-        <v>0</v>
+      <c r="AH15" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI15" s="11" t="s">
         <v>58</v>
@@ -2202,7 +2237,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
@@ -2333,35 +2368,35 @@
       <c r="AS16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT16" s="13" t="s">
-        <v>58</v>
+      <c r="AT16" s="13">
+        <v>869</v>
       </c>
       <c r="AU16" s="13">
-        <v>869</v>
+        <v>668</v>
       </c>
       <c r="AV16" s="13">
-        <v>668</v>
+        <v>703</v>
       </c>
       <c r="AW16" s="13">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="AX16" s="13">
-        <v>712</v>
+        <v>681</v>
       </c>
       <c r="AY16" s="13">
-        <v>681</v>
+        <v>830</v>
       </c>
       <c r="AZ16" s="13">
-        <v>830</v>
+        <v>776</v>
       </c>
       <c r="BA16" s="13">
-        <v>776</v>
+        <v>1180</v>
       </c>
       <c r="BB16" s="13">
-        <v>1180</v>
+        <v>984</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>64</v>
       </c>
@@ -2492,35 +2527,35 @@
       <c r="AS17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT17" s="11" t="s">
-        <v>58</v>
+      <c r="AT17" s="11">
+        <v>163</v>
       </c>
       <c r="AU17" s="11">
-        <v>163</v>
+        <v>543</v>
       </c>
       <c r="AV17" s="11">
-        <v>543</v>
+        <v>309</v>
       </c>
       <c r="AW17" s="11">
-        <v>309</v>
+        <v>940</v>
       </c>
       <c r="AX17" s="11">
-        <v>940</v>
+        <v>1001</v>
       </c>
       <c r="AY17" s="11">
-        <v>1001</v>
+        <v>2504</v>
       </c>
       <c r="AZ17" s="11">
-        <v>2504</v>
+        <v>1469</v>
       </c>
       <c r="BA17" s="11">
-        <v>1469</v>
+        <v>1142</v>
       </c>
       <c r="BB17" s="11">
-        <v>1142</v>
+        <v>592</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>65</v>
       </c>
@@ -2587,97 +2622,97 @@
         <v>0</v>
       </c>
       <c r="Y18" s="15">
-        <v>0</v>
+        <v>1850</v>
       </c>
       <c r="Z18" s="15">
-        <v>1850</v>
+        <v>2151</v>
       </c>
       <c r="AA18" s="15">
-        <v>2151</v>
+        <v>8641</v>
       </c>
       <c r="AB18" s="15">
-        <v>8641</v>
+        <v>6086</v>
       </c>
       <c r="AC18" s="15">
-        <v>6086</v>
+        <v>1463</v>
       </c>
       <c r="AD18" s="15">
-        <v>1463</v>
+        <v>1253</v>
       </c>
       <c r="AE18" s="15">
-        <v>1253</v>
+        <v>1363</v>
       </c>
       <c r="AF18" s="15">
-        <v>1363</v>
+        <v>1605</v>
       </c>
       <c r="AG18" s="15">
-        <v>1605</v>
+        <v>1313</v>
       </c>
       <c r="AH18" s="15">
-        <v>1313</v>
+        <v>866</v>
       </c>
       <c r="AI18" s="15">
-        <v>866</v>
+        <v>1701</v>
       </c>
       <c r="AJ18" s="15">
-        <v>1701</v>
+        <v>1500</v>
       </c>
       <c r="AK18" s="15">
-        <v>1500</v>
+        <v>1316</v>
       </c>
       <c r="AL18" s="15">
-        <v>1316</v>
+        <v>1851</v>
       </c>
       <c r="AM18" s="15">
-        <v>1851</v>
+        <v>6120</v>
       </c>
       <c r="AN18" s="15">
-        <v>6120</v>
+        <v>3354</v>
       </c>
       <c r="AO18" s="15">
-        <v>3354</v>
+        <v>2679</v>
       </c>
       <c r="AP18" s="15">
-        <v>2679</v>
+        <v>1481</v>
       </c>
       <c r="AQ18" s="15">
-        <v>1481</v>
+        <v>2634</v>
       </c>
       <c r="AR18" s="15">
-        <v>2634</v>
+        <v>1291</v>
       </c>
       <c r="AS18" s="15">
-        <v>1291</v>
+        <v>2071</v>
       </c>
       <c r="AT18" s="15">
-        <v>2071</v>
+        <v>1032</v>
       </c>
       <c r="AU18" s="15">
-        <v>1032</v>
+        <v>1321</v>
       </c>
       <c r="AV18" s="15">
-        <v>1321</v>
+        <v>1012</v>
       </c>
       <c r="AW18" s="15">
-        <v>1012</v>
+        <v>1842</v>
       </c>
       <c r="AX18" s="15">
-        <v>1842</v>
+        <v>1983</v>
       </c>
       <c r="AY18" s="15">
-        <v>1983</v>
+        <v>5536</v>
       </c>
       <c r="AZ18" s="15">
-        <v>5536</v>
+        <v>6444</v>
       </c>
       <c r="BA18" s="15">
-        <v>6444</v>
+        <v>3337</v>
       </c>
       <c r="BB18" s="15">
-        <v>3337</v>
+        <v>1698</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="16" t="s">
         <v>66</v>
       </c>
@@ -2734,7 +2769,7 @@
       <c r="BA19" s="17"/>
       <c r="BB19" s="17"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="18" t="s">
         <v>67</v>
       </c>
@@ -2891,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>68</v>
       </c>
@@ -2948,7 +2983,7 @@
       <c r="BA21" s="9"/>
       <c r="BB21" s="9"/>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>56</v>
       </c>
@@ -3016,8 +3051,8 @@
       <c r="X22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y22" s="11" t="s">
-        <v>58</v>
+      <c r="Y22" s="11">
+        <v>0</v>
       </c>
       <c r="Z22" s="11">
         <v>0</v>
@@ -3040,8 +3075,8 @@
       <c r="AF22" s="11">
         <v>0</v>
       </c>
-      <c r="AG22" s="11">
-        <v>0</v>
+      <c r="AG22" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH22" s="11" t="s">
         <v>58</v>
@@ -3107,7 +3142,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>59</v>
       </c>
@@ -3175,8 +3210,8 @@
       <c r="X23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y23" s="13" t="s">
-        <v>58</v>
+      <c r="Y23" s="13">
+        <v>0</v>
       </c>
       <c r="Z23" s="13">
         <v>0</v>
@@ -3199,8 +3234,8 @@
       <c r="AF23" s="13">
         <v>0</v>
       </c>
-      <c r="AG23" s="13">
-        <v>0</v>
+      <c r="AG23" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH23" s="13" t="s">
         <v>58</v>
@@ -3266,7 +3301,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>60</v>
       </c>
@@ -3334,8 +3369,8 @@
       <c r="X24" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y24" s="11" t="s">
-        <v>58</v>
+      <c r="Y24" s="11">
+        <v>0</v>
       </c>
       <c r="Z24" s="11">
         <v>0</v>
@@ -3358,8 +3393,8 @@
       <c r="AF24" s="11">
         <v>0</v>
       </c>
-      <c r="AG24" s="11">
-        <v>0</v>
+      <c r="AG24" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH24" s="11" t="s">
         <v>58</v>
@@ -3425,7 +3460,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>69</v>
       </c>
@@ -3550,11 +3585,11 @@
       <c r="AQ25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR25" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS25" s="13">
-        <v>0</v>
+      <c r="AR25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT25" s="13" t="s">
         <v>58</v>
@@ -3584,7 +3619,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="18" t="s">
         <v>70</v>
       </c>
@@ -3650,8 +3685,8 @@
       <c r="X26" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Y26" s="19" t="s">
-        <v>58</v>
+      <c r="Y26" s="19">
+        <v>0</v>
       </c>
       <c r="Z26" s="19">
         <v>0</v>
@@ -3741,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>71</v>
       </c>
@@ -3808,97 +3843,97 @@
         <v>0</v>
       </c>
       <c r="Y27" s="15">
-        <v>0</v>
+        <v>1850</v>
       </c>
       <c r="Z27" s="15">
-        <v>1850</v>
+        <v>2151</v>
       </c>
       <c r="AA27" s="15">
-        <v>2151</v>
+        <v>8641</v>
       </c>
       <c r="AB27" s="15">
-        <v>8641</v>
+        <v>6086</v>
       </c>
       <c r="AC27" s="15">
-        <v>6086</v>
+        <v>1463</v>
       </c>
       <c r="AD27" s="15">
-        <v>1463</v>
+        <v>1253</v>
       </c>
       <c r="AE27" s="15">
-        <v>1253</v>
+        <v>1363</v>
       </c>
       <c r="AF27" s="15">
-        <v>1363</v>
+        <v>1605</v>
       </c>
       <c r="AG27" s="15">
-        <v>1605</v>
+        <v>1313</v>
       </c>
       <c r="AH27" s="15">
-        <v>1313</v>
+        <v>866</v>
       </c>
       <c r="AI27" s="15">
-        <v>866</v>
+        <v>1701</v>
       </c>
       <c r="AJ27" s="15">
-        <v>1701</v>
+        <v>1500</v>
       </c>
       <c r="AK27" s="15">
-        <v>1500</v>
+        <v>1316</v>
       </c>
       <c r="AL27" s="15">
-        <v>1316</v>
+        <v>1851</v>
       </c>
       <c r="AM27" s="15">
-        <v>1851</v>
+        <v>6120</v>
       </c>
       <c r="AN27" s="15">
-        <v>6120</v>
+        <v>3354</v>
       </c>
       <c r="AO27" s="15">
-        <v>3354</v>
+        <v>2679</v>
       </c>
       <c r="AP27" s="15">
-        <v>2679</v>
+        <v>1481</v>
       </c>
       <c r="AQ27" s="15">
-        <v>1481</v>
+        <v>2634</v>
       </c>
       <c r="AR27" s="15">
-        <v>2634</v>
+        <v>1291</v>
       </c>
       <c r="AS27" s="15">
-        <v>1291</v>
+        <v>2071</v>
       </c>
       <c r="AT27" s="15">
-        <v>2071</v>
+        <v>1032</v>
       </c>
       <c r="AU27" s="15">
-        <v>1032</v>
+        <v>1321</v>
       </c>
       <c r="AV27" s="15">
-        <v>1321</v>
+        <v>1012</v>
       </c>
       <c r="AW27" s="15">
-        <v>1012</v>
+        <v>1842</v>
       </c>
       <c r="AX27" s="15">
-        <v>1842</v>
+        <v>1983</v>
       </c>
       <c r="AY27" s="15">
-        <v>1983</v>
+        <v>5536</v>
       </c>
       <c r="AZ27" s="15">
-        <v>5536</v>
+        <v>6444</v>
       </c>
       <c r="BA27" s="15">
-        <v>6444</v>
+        <v>3337</v>
       </c>
       <c r="BB27" s="15">
-        <v>3337</v>
+        <v>1698</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3953,7 +3988,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -4008,7 +4043,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -4063,7 +4098,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>72</v>
       </c>
@@ -4220,7 +4255,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -4275,7 +4310,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>73</v>
       </c>
@@ -4332,7 +4367,7 @@
       <c r="BA33" s="9"/>
       <c r="BB33" s="9"/>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>56</v>
       </c>
@@ -4400,98 +4435,98 @@
       <c r="X34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y34" s="11" t="s">
-        <v>58</v>
+      <c r="Y34" s="11">
+        <v>28</v>
       </c>
       <c r="Z34" s="11">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="AA34" s="11">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="AB34" s="11">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="AC34" s="11">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AD34" s="11">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="AE34" s="11">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="AF34" s="11">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AG34" s="11">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="AH34" s="11">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="AI34" s="11">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ34" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK34" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AL34" s="11">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AM34" s="11">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="AN34" s="11">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="AO34" s="11">
-        <v>166</v>
+        <v>261</v>
       </c>
       <c r="AP34" s="11">
-        <v>261</v>
+        <v>126</v>
       </c>
       <c r="AQ34" s="11">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="AR34" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AS34" s="11">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="AT34" s="11">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AU34" s="11">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="AV34" s="11">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="AW34" s="11">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="AX34" s="11">
+        <v>55</v>
+      </c>
+      <c r="AY34" s="11">
         <v>33</v>
       </c>
-      <c r="AY34" s="11">
-        <v>55</v>
-      </c>
       <c r="AZ34" s="11">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="BA34" s="11">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="BB34" s="11">
-        <v>185</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="12" t="s">
         <v>59</v>
       </c>
@@ -4559,72 +4594,72 @@
       <c r="X35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y35" s="13" t="s">
-        <v>58</v>
+      <c r="Y35" s="13">
+        <v>739</v>
       </c>
       <c r="Z35" s="13">
-        <v>739</v>
+        <v>715</v>
       </c>
       <c r="AA35" s="13">
-        <v>715</v>
+        <v>1030</v>
       </c>
       <c r="AB35" s="13">
-        <v>1030</v>
+        <v>2699</v>
       </c>
       <c r="AC35" s="13">
-        <v>2699</v>
+        <v>1078</v>
       </c>
       <c r="AD35" s="13">
-        <v>1078</v>
+        <v>517</v>
       </c>
       <c r="AE35" s="13">
-        <v>517</v>
+        <v>490</v>
       </c>
       <c r="AF35" s="13">
-        <v>490</v>
+        <v>833</v>
       </c>
       <c r="AG35" s="13">
-        <v>833</v>
+        <v>890</v>
       </c>
       <c r="AH35" s="13">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="AI35" s="13">
-        <v>893</v>
+        <v>1646</v>
       </c>
       <c r="AJ35" s="13">
+        <v>2297</v>
+      </c>
+      <c r="AK35" s="13">
+        <v>1341</v>
+      </c>
+      <c r="AL35" s="13">
+        <v>2709</v>
+      </c>
+      <c r="AM35" s="13">
         <v>1646</v>
       </c>
-      <c r="AK35" s="13">
-        <v>2297</v>
-      </c>
-      <c r="AL35" s="13">
-        <v>1341</v>
-      </c>
-      <c r="AM35" s="13">
-        <v>2709</v>
-      </c>
       <c r="AN35" s="13">
-        <v>1646</v>
+        <v>2076</v>
       </c>
       <c r="AO35" s="13">
-        <v>2076</v>
+        <v>2024</v>
       </c>
       <c r="AP35" s="13">
-        <v>2024</v>
+        <v>1519</v>
       </c>
       <c r="AQ35" s="13">
-        <v>1519</v>
+        <v>1859</v>
       </c>
       <c r="AR35" s="13">
-        <v>1859</v>
+        <v>1372</v>
       </c>
       <c r="AS35" s="13">
-        <v>1372</v>
-      </c>
-      <c r="AT35" s="13">
         <v>749</v>
       </c>
+      <c r="AT35" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AU35" s="13" t="s">
         <v>58</v>
       </c>
@@ -4650,7 +4685,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>60</v>
       </c>
@@ -4718,72 +4753,72 @@
       <c r="X36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y36" s="11" t="s">
-        <v>58</v>
+      <c r="Y36" s="11">
+        <v>855</v>
       </c>
       <c r="Z36" s="11">
-        <v>855</v>
+        <v>555</v>
       </c>
       <c r="AA36" s="11">
-        <v>555</v>
+        <v>797</v>
       </c>
       <c r="AB36" s="11">
-        <v>797</v>
+        <v>829</v>
       </c>
       <c r="AC36" s="11">
-        <v>829</v>
+        <v>752</v>
       </c>
       <c r="AD36" s="11">
-        <v>752</v>
+        <v>897</v>
       </c>
       <c r="AE36" s="11">
-        <v>897</v>
+        <v>956</v>
       </c>
       <c r="AF36" s="11">
-        <v>956</v>
+        <v>1061</v>
       </c>
       <c r="AG36" s="11">
-        <v>1061</v>
+        <v>1172</v>
       </c>
       <c r="AH36" s="11">
-        <v>1172</v>
+        <v>872</v>
       </c>
       <c r="AI36" s="11">
-        <v>872</v>
+        <v>789</v>
       </c>
       <c r="AJ36" s="11">
-        <v>789</v>
+        <v>594</v>
       </c>
       <c r="AK36" s="11">
-        <v>594</v>
+        <v>561</v>
       </c>
       <c r="AL36" s="11">
-        <v>561</v>
+        <v>671</v>
       </c>
       <c r="AM36" s="11">
-        <v>671</v>
+        <v>743</v>
       </c>
       <c r="AN36" s="11">
-        <v>743</v>
+        <v>820</v>
       </c>
       <c r="AO36" s="11">
-        <v>820</v>
+        <v>1157</v>
       </c>
       <c r="AP36" s="11">
-        <v>1157</v>
+        <v>988</v>
       </c>
       <c r="AQ36" s="11">
-        <v>988</v>
+        <v>1490</v>
       </c>
       <c r="AR36" s="11">
-        <v>1490</v>
+        <v>1054</v>
       </c>
       <c r="AS36" s="11">
-        <v>1054</v>
-      </c>
-      <c r="AT36" s="11">
         <v>1078</v>
       </c>
+      <c r="AT36" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU36" s="11" t="s">
         <v>58</v>
       </c>
@@ -4809,7 +4844,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>61</v>
       </c>
@@ -4940,8 +4975,8 @@
       <c r="AS37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT37" s="13" t="s">
-        <v>58</v>
+      <c r="AT37" s="13">
+        <v>0</v>
       </c>
       <c r="AU37" s="13">
         <v>0</v>
@@ -4953,22 +4988,22 @@
         <v>0</v>
       </c>
       <c r="AX37" s="13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AY37" s="13">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="AZ37" s="13">
-        <v>235</v>
+        <v>1236</v>
       </c>
       <c r="BA37" s="13">
-        <v>1236</v>
+        <v>986</v>
       </c>
       <c r="BB37" s="13">
-        <v>986</v>
+        <v>355</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>62</v>
       </c>
@@ -5036,8 +5071,8 @@
       <c r="X38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y38" s="11" t="s">
-        <v>58</v>
+      <c r="Y38" s="11">
+        <v>0</v>
       </c>
       <c r="Z38" s="11">
         <v>0</v>
@@ -5063,8 +5098,8 @@
       <c r="AG38" s="11">
         <v>0</v>
       </c>
-      <c r="AH38" s="11">
-        <v>0</v>
+      <c r="AH38" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI38" s="11" t="s">
         <v>58</v>
@@ -5127,7 +5162,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="12" t="s">
         <v>63</v>
       </c>
@@ -5258,35 +5293,35 @@
       <c r="AS39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT39" s="13" t="s">
-        <v>58</v>
+      <c r="AT39" s="13">
+        <v>847</v>
       </c>
       <c r="AU39" s="13">
-        <v>847</v>
+        <v>748</v>
       </c>
       <c r="AV39" s="13">
-        <v>748</v>
+        <v>622</v>
       </c>
       <c r="AW39" s="13">
-        <v>622</v>
+        <v>685</v>
       </c>
       <c r="AX39" s="13">
-        <v>685</v>
+        <v>733</v>
       </c>
       <c r="AY39" s="13">
-        <v>733</v>
+        <v>780</v>
       </c>
       <c r="AZ39" s="13">
-        <v>780</v>
+        <v>901</v>
       </c>
       <c r="BA39" s="13">
-        <v>901</v>
+        <v>1024</v>
       </c>
       <c r="BB39" s="13">
-        <v>1024</v>
+        <v>1026</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>64</v>
       </c>
@@ -5417,35 +5452,35 @@
       <c r="AS40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT40" s="11" t="s">
-        <v>58</v>
+      <c r="AT40" s="11">
+        <v>505</v>
       </c>
       <c r="AU40" s="11">
-        <v>505</v>
+        <v>616</v>
       </c>
       <c r="AV40" s="11">
-        <v>616</v>
+        <v>421</v>
       </c>
       <c r="AW40" s="11">
-        <v>421</v>
+        <v>849</v>
       </c>
       <c r="AX40" s="11">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="AY40" s="11">
-        <v>840</v>
+        <v>925</v>
       </c>
       <c r="AZ40" s="11">
-        <v>925</v>
+        <v>1092</v>
       </c>
       <c r="BA40" s="11">
-        <v>1092</v>
+        <v>1215</v>
       </c>
       <c r="BB40" s="11">
-        <v>1215</v>
+        <v>830</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>74</v>
       </c>
@@ -5512,97 +5547,97 @@
         <v>0</v>
       </c>
       <c r="Y41" s="15">
-        <v>0</v>
+        <v>1622</v>
       </c>
       <c r="Z41" s="15">
-        <v>1622</v>
+        <v>1311</v>
       </c>
       <c r="AA41" s="15">
-        <v>1311</v>
+        <v>1851</v>
       </c>
       <c r="AB41" s="15">
-        <v>1851</v>
+        <v>3563</v>
       </c>
       <c r="AC41" s="15">
-        <v>3563</v>
+        <v>1888</v>
       </c>
       <c r="AD41" s="15">
-        <v>1888</v>
+        <v>1450</v>
       </c>
       <c r="AE41" s="15">
-        <v>1450</v>
+        <v>1466</v>
       </c>
       <c r="AF41" s="15">
-        <v>1466</v>
+        <v>1924</v>
       </c>
       <c r="AG41" s="15">
-        <v>1924</v>
+        <v>2081</v>
       </c>
       <c r="AH41" s="15">
-        <v>2081</v>
+        <v>1802</v>
       </c>
       <c r="AI41" s="15">
-        <v>1802</v>
+        <v>2509</v>
       </c>
       <c r="AJ41" s="15">
-        <v>2509</v>
+        <v>2966</v>
       </c>
       <c r="AK41" s="15">
-        <v>2966</v>
+        <v>1979</v>
       </c>
       <c r="AL41" s="15">
-        <v>1979</v>
+        <v>3478</v>
       </c>
       <c r="AM41" s="15">
-        <v>3478</v>
+        <v>2534</v>
       </c>
       <c r="AN41" s="15">
-        <v>2534</v>
+        <v>3062</v>
       </c>
       <c r="AO41" s="15">
-        <v>3062</v>
+        <v>3442</v>
       </c>
       <c r="AP41" s="15">
-        <v>3442</v>
+        <v>2633</v>
       </c>
       <c r="AQ41" s="15">
-        <v>2633</v>
+        <v>3416</v>
       </c>
       <c r="AR41" s="15">
-        <v>3416</v>
+        <v>2495</v>
       </c>
       <c r="AS41" s="15">
-        <v>2495</v>
+        <v>1871</v>
       </c>
       <c r="AT41" s="15">
-        <v>1871</v>
+        <v>1415</v>
       </c>
       <c r="AU41" s="15">
-        <v>1415</v>
+        <v>1395</v>
       </c>
       <c r="AV41" s="15">
-        <v>1395</v>
+        <v>1056</v>
       </c>
       <c r="AW41" s="15">
-        <v>1056</v>
+        <v>1567</v>
       </c>
       <c r="AX41" s="15">
-        <v>1567</v>
+        <v>1640</v>
       </c>
       <c r="AY41" s="15">
-        <v>1640</v>
+        <v>1973</v>
       </c>
       <c r="AZ41" s="15">
-        <v>1973</v>
+        <v>3313</v>
       </c>
       <c r="BA41" s="15">
-        <v>3313</v>
+        <v>3410</v>
       </c>
       <c r="BB41" s="15">
-        <v>3410</v>
+        <v>2334</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="16" t="s">
         <v>75</v>
       </c>
@@ -5659,7 +5694,7 @@
       <c r="BA42" s="17"/>
       <c r="BB42" s="17"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="18" t="s">
         <v>76</v>
       </c>
@@ -5816,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>68</v>
       </c>
@@ -5873,7 +5908,7 @@
       <c r="BA44" s="9"/>
       <c r="BB44" s="9"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>56</v>
       </c>
@@ -5941,8 +5976,8 @@
       <c r="X45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y45" s="11" t="s">
-        <v>58</v>
+      <c r="Y45" s="11">
+        <v>0</v>
       </c>
       <c r="Z45" s="11">
         <v>0</v>
@@ -5965,8 +6000,8 @@
       <c r="AF45" s="11">
         <v>0</v>
       </c>
-      <c r="AG45" s="11">
-        <v>0</v>
+      <c r="AG45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH45" s="11" t="s">
         <v>58</v>
@@ -6032,7 +6067,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="12" t="s">
         <v>59</v>
       </c>
@@ -6100,8 +6135,8 @@
       <c r="X46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y46" s="13" t="s">
-        <v>58</v>
+      <c r="Y46" s="13">
+        <v>0</v>
       </c>
       <c r="Z46" s="13">
         <v>0</v>
@@ -6124,8 +6159,8 @@
       <c r="AF46" s="13">
         <v>0</v>
       </c>
-      <c r="AG46" s="13">
-        <v>0</v>
+      <c r="AG46" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH46" s="13" t="s">
         <v>58</v>
@@ -6191,7 +6226,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>60</v>
       </c>
@@ -6259,8 +6294,8 @@
       <c r="X47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y47" s="11" t="s">
-        <v>58</v>
+      <c r="Y47" s="11">
+        <v>0</v>
       </c>
       <c r="Z47" s="11">
         <v>0</v>
@@ -6283,8 +6318,8 @@
       <c r="AF47" s="11">
         <v>0</v>
       </c>
-      <c r="AG47" s="11">
-        <v>0</v>
+      <c r="AG47" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH47" s="11" t="s">
         <v>58</v>
@@ -6350,7 +6385,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="12" t="s">
         <v>69</v>
       </c>
@@ -6475,11 +6510,11 @@
       <c r="AQ48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS48" s="13">
-        <v>0</v>
+      <c r="AR48" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS48" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT48" s="13" t="s">
         <v>58</v>
@@ -6509,7 +6544,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="18" t="s">
         <v>70</v>
       </c>
@@ -6575,8 +6610,8 @@
       <c r="X49" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Y49" s="19" t="s">
-        <v>58</v>
+      <c r="Y49" s="19">
+        <v>0</v>
       </c>
       <c r="Z49" s="19">
         <v>0</v>
@@ -6633,10 +6668,10 @@
         <v>0</v>
       </c>
       <c r="AR49" s="19">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="AS49" s="19">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="AT49" s="19">
         <v>0</v>
@@ -6666,7 +6701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>77</v>
       </c>
@@ -6723,7 +6758,7 @@
       <c r="BA50" s="9"/>
       <c r="BB50" s="9"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>56</v>
       </c>
@@ -6791,14 +6826,14 @@
       <c r="X51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y51" s="11" t="s">
-        <v>58</v>
+      <c r="Y51" s="11">
+        <v>1</v>
       </c>
       <c r="Z51" s="11">
+        <v>2</v>
+      </c>
+      <c r="AA51" s="11">
         <v>1</v>
-      </c>
-      <c r="AA51" s="11">
-        <v>2</v>
       </c>
       <c r="AB51" s="11">
         <v>1</v>
@@ -6810,58 +6845,58 @@
         <v>1</v>
       </c>
       <c r="AE51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="11">
         <v>1</v>
       </c>
-      <c r="AF51" s="11">
-        <v>0</v>
-      </c>
       <c r="AG51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI51" s="11">
         <v>1</v>
       </c>
-      <c r="AH51" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI51" s="11">
-        <v>0</v>
-      </c>
       <c r="AJ51" s="11">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AK51" s="11">
-        <v>12</v>
-      </c>
-      <c r="AL51" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN51" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO51" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AL51" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN51" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO51" s="11">
+        <v>0</v>
       </c>
       <c r="AP51" s="11">
         <v>0</v>
       </c>
       <c r="AQ51" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR51" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS51" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT51" s="11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AU51" s="11">
         <v>0</v>
       </c>
-      <c r="AV51" s="11">
-        <v>0</v>
+      <c r="AV51" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW51" s="11" t="s">
         <v>58</v>
@@ -6882,7 +6917,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
         <v>59</v>
       </c>
@@ -6950,72 +6985,72 @@
       <c r="X52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y52" s="13" t="s">
-        <v>58</v>
+      <c r="Y52" s="13">
+        <v>9</v>
       </c>
       <c r="Z52" s="13">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AA52" s="13">
+        <v>4</v>
+      </c>
+      <c r="AB52" s="13">
+        <v>23</v>
+      </c>
+      <c r="AC52" s="13">
+        <v>20</v>
+      </c>
+      <c r="AD52" s="13">
+        <v>32</v>
+      </c>
+      <c r="AE52" s="13">
+        <v>13</v>
+      </c>
+      <c r="AF52" s="13">
         <v>3</v>
-      </c>
-      <c r="AB52" s="13">
-        <v>4</v>
-      </c>
-      <c r="AC52" s="13">
-        <v>23</v>
-      </c>
-      <c r="AD52" s="13">
-        <v>20</v>
-      </c>
-      <c r="AE52" s="13">
-        <v>32</v>
-      </c>
-      <c r="AF52" s="13">
-        <v>13</v>
       </c>
       <c r="AG52" s="13">
         <v>3</v>
       </c>
       <c r="AH52" s="13">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AI52" s="13">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="AJ52" s="13">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="AK52" s="13">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="AL52" s="13">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="AM52" s="13">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AN52" s="13">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="AO52" s="13">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="AP52" s="13">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="AQ52" s="13">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="AR52" s="13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AS52" s="13">
-        <v>2</v>
-      </c>
-      <c r="AT52" s="13">
         <v>24</v>
       </c>
+      <c r="AT52" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AU52" s="13" t="s">
         <v>58</v>
       </c>
@@ -7041,7 +7076,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>60</v>
       </c>
@@ -7109,56 +7144,56 @@
       <c r="X53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y53" s="11" t="s">
-        <v>58</v>
+      <c r="Y53" s="11">
+        <v>3</v>
       </c>
       <c r="Z53" s="11">
+        <v>2</v>
+      </c>
+      <c r="AA53" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB53" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC53" s="11">
+        <v>5</v>
+      </c>
+      <c r="AD53" s="11">
         <v>3</v>
       </c>
-      <c r="AA53" s="11">
+      <c r="AE53" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="11">
+        <v>26</v>
+      </c>
+      <c r="AG53" s="11">
+        <v>9</v>
+      </c>
+      <c r="AH53" s="11">
+        <v>3</v>
+      </c>
+      <c r="AI53" s="11">
+        <v>1</v>
+      </c>
+      <c r="AJ53" s="11">
+        <v>4</v>
+      </c>
+      <c r="AK53" s="11">
         <v>2</v>
       </c>
-      <c r="AB53" s="11">
-        <v>1</v>
-      </c>
-      <c r="AC53" s="11">
-        <v>2</v>
-      </c>
-      <c r="AD53" s="11">
-        <v>5</v>
-      </c>
-      <c r="AE53" s="11">
-        <v>3</v>
-      </c>
-      <c r="AF53" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG53" s="11">
-        <v>26</v>
-      </c>
-      <c r="AH53" s="11">
-        <v>9</v>
-      </c>
-      <c r="AI53" s="11">
-        <v>3</v>
-      </c>
-      <c r="AJ53" s="11">
-        <v>1</v>
-      </c>
-      <c r="AK53" s="11">
-        <v>4</v>
-      </c>
       <c r="AL53" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM53" s="11">
         <v>0</v>
       </c>
-      <c r="AN53" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO53" s="11" t="s">
-        <v>58</v>
+      <c r="AN53" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO53" s="11">
+        <v>0</v>
       </c>
       <c r="AP53" s="11">
         <v>0</v>
@@ -7172,8 +7207,8 @@
       <c r="AS53" s="11">
         <v>0</v>
       </c>
-      <c r="AT53" s="11">
-        <v>0</v>
+      <c r="AT53" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU53" s="11" t="s">
         <v>58</v>
@@ -7200,7 +7235,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
         <v>61</v>
       </c>
@@ -7343,23 +7378,23 @@
       <c r="AW54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY54" s="13">
+      <c r="AX54" s="13">
         <v>1</v>
       </c>
+      <c r="AY54" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AZ54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BA54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB54" s="13">
+      <c r="BA54" s="13">
         <v>1</v>
       </c>
+      <c r="BB54" s="13" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>63</v>
       </c>
@@ -7490,14 +7525,14 @@
       <c r="AS55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT55" s="11" t="s">
-        <v>58</v>
+      <c r="AT55" s="11">
+        <v>0</v>
       </c>
       <c r="AU55" s="11">
         <v>0</v>
       </c>
-      <c r="AV55" s="11">
-        <v>0</v>
+      <c r="AV55" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW55" s="11" t="s">
         <v>58</v>
@@ -7518,7 +7553,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>64</v>
       </c>
@@ -7649,35 +7684,35 @@
       <c r="AS56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT56" s="13" t="s">
-        <v>58</v>
+      <c r="AT56" s="13">
+        <v>32</v>
       </c>
       <c r="AU56" s="13">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AV56" s="13">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="AW56" s="13">
-        <v>8</v>
-      </c>
-      <c r="AX56" s="13">
         <v>3</v>
       </c>
+      <c r="AX56" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AY56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ56" s="13" t="s">
-        <v>58</v>
+      <c r="AZ56" s="13">
+        <v>1</v>
       </c>
       <c r="BA56" s="13">
-        <v>1</v>
-      </c>
-      <c r="BB56" s="13">
         <v>2</v>
       </c>
+      <c r="BB56" s="13" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B57" s="18" t="s">
         <v>78</v>
       </c>
@@ -7743,98 +7778,98 @@
       <c r="X57" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Y57" s="19" t="s">
-        <v>58</v>
+      <c r="Y57" s="19">
+        <v>13</v>
       </c>
       <c r="Z57" s="19">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AA57" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB57" s="19">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="AC57" s="19">
         <v>26</v>
       </c>
       <c r="AD57" s="19">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AE57" s="19">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="AF57" s="19">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AG57" s="19">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="AH57" s="19">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AI57" s="19">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="AJ57" s="19">
         <v>35</v>
       </c>
       <c r="AK57" s="19">
+        <v>61</v>
+      </c>
+      <c r="AL57" s="19">
+        <v>9</v>
+      </c>
+      <c r="AM57" s="19">
+        <v>5</v>
+      </c>
+      <c r="AN57" s="19">
+        <v>55</v>
+      </c>
+      <c r="AO57" s="19">
+        <v>110</v>
+      </c>
+      <c r="AP57" s="19">
+        <v>36</v>
+      </c>
+      <c r="AQ57" s="19">
+        <v>10</v>
+      </c>
+      <c r="AR57" s="19">
+        <v>2</v>
+      </c>
+      <c r="AS57" s="19">
+        <v>28</v>
+      </c>
+      <c r="AT57" s="19">
+        <v>32</v>
+      </c>
+      <c r="AU57" s="19">
         <v>35</v>
       </c>
-      <c r="AL57" s="19">
-        <v>61</v>
-      </c>
-      <c r="AM57" s="19">
-        <v>9</v>
-      </c>
-      <c r="AN57" s="19">
-        <v>5</v>
-      </c>
-      <c r="AO57" s="19">
-        <v>55</v>
-      </c>
-      <c r="AP57" s="19">
-        <v>110</v>
-      </c>
-      <c r="AQ57" s="19">
-        <v>36</v>
-      </c>
-      <c r="AR57" s="19">
-        <v>10</v>
-      </c>
-      <c r="AS57" s="19">
-        <v>2</v>
-      </c>
-      <c r="AT57" s="19">
-        <v>28</v>
-      </c>
-      <c r="AU57" s="19">
-        <v>32</v>
-      </c>
       <c r="AV57" s="19">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="AW57" s="19">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AX57" s="19">
+        <v>1</v>
+      </c>
+      <c r="AY57" s="19">
+        <v>0</v>
+      </c>
+      <c r="AZ57" s="19">
+        <v>1</v>
+      </c>
+      <c r="BA57" s="19">
         <v>3</v>
       </c>
-      <c r="AY57" s="19">
-        <v>1</v>
-      </c>
-      <c r="AZ57" s="19">
-        <v>0</v>
-      </c>
-      <c r="BA57" s="19">
-        <v>1</v>
-      </c>
       <c r="BB57" s="19">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B58" s="14" t="s">
         <v>71</v>
       </c>
@@ -7901,97 +7936,97 @@
         <v>0</v>
       </c>
       <c r="Y58" s="15">
-        <v>0</v>
+        <v>1635</v>
       </c>
       <c r="Z58" s="15">
-        <v>1635</v>
+        <v>1318</v>
       </c>
       <c r="AA58" s="15">
-        <v>1318</v>
+        <v>1857</v>
       </c>
       <c r="AB58" s="15">
-        <v>1857</v>
+        <v>3589</v>
       </c>
       <c r="AC58" s="15">
-        <v>3589</v>
+        <v>1914</v>
       </c>
       <c r="AD58" s="15">
-        <v>1914</v>
+        <v>1486</v>
       </c>
       <c r="AE58" s="15">
-        <v>1486</v>
+        <v>1479</v>
       </c>
       <c r="AF58" s="15">
-        <v>1479</v>
+        <v>1954</v>
       </c>
       <c r="AG58" s="15">
-        <v>1954</v>
+        <v>2093</v>
       </c>
       <c r="AH58" s="15">
-        <v>2093</v>
+        <v>1817</v>
       </c>
       <c r="AI58" s="15">
-        <v>1817</v>
+        <v>2544</v>
       </c>
       <c r="AJ58" s="15">
-        <v>2544</v>
+        <v>3001</v>
       </c>
       <c r="AK58" s="15">
-        <v>3001</v>
+        <v>2040</v>
       </c>
       <c r="AL58" s="15">
-        <v>2040</v>
+        <v>3487</v>
       </c>
       <c r="AM58" s="15">
-        <v>3487</v>
+        <v>2539</v>
       </c>
       <c r="AN58" s="15">
-        <v>2539</v>
+        <v>3117</v>
       </c>
       <c r="AO58" s="15">
-        <v>3117</v>
+        <v>3552</v>
       </c>
       <c r="AP58" s="15">
-        <v>3552</v>
+        <v>2669</v>
       </c>
       <c r="AQ58" s="15">
-        <v>2669</v>
+        <v>3426</v>
       </c>
       <c r="AR58" s="15">
-        <v>3426</v>
+        <v>2497</v>
       </c>
       <c r="AS58" s="15">
-        <v>2497</v>
+        <v>1899</v>
       </c>
       <c r="AT58" s="15">
-        <v>1899</v>
+        <v>1447</v>
       </c>
       <c r="AU58" s="15">
-        <v>1447</v>
+        <v>1430</v>
       </c>
       <c r="AV58" s="15">
-        <v>1430</v>
+        <v>1064</v>
       </c>
       <c r="AW58" s="15">
-        <v>1064</v>
+        <v>1570</v>
       </c>
       <c r="AX58" s="15">
-        <v>1570</v>
+        <v>1641</v>
       </c>
       <c r="AY58" s="15">
-        <v>1641</v>
+        <v>1973</v>
       </c>
       <c r="AZ58" s="15">
-        <v>1973</v>
+        <v>3314</v>
       </c>
       <c r="BA58" s="15">
-        <v>3314</v>
+        <v>3413</v>
       </c>
       <c r="BB58" s="15">
-        <v>3413</v>
+        <v>2334</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -8046,7 +8081,7 @@
       <c r="BA59" s="1"/>
       <c r="BB59" s="1"/>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -8101,7 +8136,7 @@
       <c r="BA60" s="1"/>
       <c r="BB60" s="1"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -8156,7 +8191,7 @@
       <c r="BA61" s="1"/>
       <c r="BB61" s="1"/>
     </row>
-    <row r="62" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
         <v>79</v>
       </c>
@@ -8313,7 +8348,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -8368,7 +8403,7 @@
       <c r="BA63" s="1"/>
       <c r="BB63" s="1"/>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>80</v>
       </c>
@@ -8425,7 +8460,7 @@
       <c r="BA64" s="9"/>
       <c r="BB64" s="9"/>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>56</v>
       </c>
@@ -8493,98 +8528,98 @@
       <c r="X65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y65" s="11" t="s">
-        <v>58</v>
+      <c r="Y65" s="11">
+        <v>2526</v>
       </c>
       <c r="Z65" s="11">
-        <v>2526</v>
+        <v>3746</v>
       </c>
       <c r="AA65" s="11">
+        <v>2357</v>
+      </c>
+      <c r="AB65" s="11">
+        <v>2890</v>
+      </c>
+      <c r="AC65" s="11">
+        <v>3364</v>
+      </c>
+      <c r="AD65" s="11">
+        <v>2674</v>
+      </c>
+      <c r="AE65" s="11">
+        <v>1872</v>
+      </c>
+      <c r="AF65" s="11">
+        <v>2324</v>
+      </c>
+      <c r="AG65" s="11">
+        <v>1604</v>
+      </c>
+      <c r="AH65" s="11">
+        <v>1839</v>
+      </c>
+      <c r="AI65" s="11">
+        <v>2678</v>
+      </c>
+      <c r="AJ65" s="11">
+        <v>2240</v>
+      </c>
+      <c r="AK65" s="11">
+        <v>1961</v>
+      </c>
+      <c r="AL65" s="11">
+        <v>2253</v>
+      </c>
+      <c r="AM65" s="11">
+        <v>4175</v>
+      </c>
+      <c r="AN65" s="11">
+        <v>4843</v>
+      </c>
+      <c r="AO65" s="11">
+        <v>7553</v>
+      </c>
+      <c r="AP65" s="11">
         <v>3746</v>
       </c>
-      <c r="AB65" s="11">
-        <v>2357</v>
-      </c>
-      <c r="AC65" s="11">
-        <v>2890</v>
-      </c>
-      <c r="AD65" s="11">
-        <v>3364</v>
-      </c>
-      <c r="AE65" s="11">
-        <v>2674</v>
-      </c>
-      <c r="AF65" s="11">
-        <v>1872</v>
-      </c>
-      <c r="AG65" s="11">
-        <v>2324</v>
-      </c>
-      <c r="AH65" s="11">
-        <v>1604</v>
-      </c>
-      <c r="AI65" s="11">
-        <v>1839</v>
-      </c>
-      <c r="AJ65" s="11">
-        <v>2678</v>
-      </c>
-      <c r="AK65" s="11">
-        <v>2240</v>
-      </c>
-      <c r="AL65" s="11">
-        <v>1961</v>
-      </c>
-      <c r="AM65" s="11">
-        <v>2253</v>
-      </c>
-      <c r="AN65" s="11">
-        <v>4175</v>
-      </c>
-      <c r="AO65" s="11">
-        <v>4843</v>
-      </c>
-      <c r="AP65" s="11">
-        <v>7553</v>
-      </c>
       <c r="AQ65" s="11">
-        <v>3746</v>
+        <v>2198</v>
       </c>
       <c r="AR65" s="11">
-        <v>2198</v>
+        <v>2250</v>
       </c>
       <c r="AS65" s="11">
-        <v>2250</v>
+        <v>1370</v>
       </c>
       <c r="AT65" s="11">
-        <v>1370</v>
+        <v>2168</v>
       </c>
       <c r="AU65" s="11">
-        <v>2168</v>
+        <v>794</v>
       </c>
       <c r="AV65" s="11">
-        <v>794</v>
+        <v>812</v>
       </c>
       <c r="AW65" s="11">
-        <v>812</v>
+        <v>1156</v>
       </c>
       <c r="AX65" s="11">
-        <v>1156</v>
+        <v>2267</v>
       </c>
       <c r="AY65" s="11">
-        <v>2267</v>
+        <v>1669</v>
       </c>
       <c r="AZ65" s="11">
-        <v>1669</v>
+        <v>3366</v>
       </c>
       <c r="BA65" s="11">
-        <v>3366</v>
+        <v>7477</v>
       </c>
       <c r="BB65" s="11">
-        <v>7477</v>
+        <v>5050</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B66" s="12" t="s">
         <v>59</v>
       </c>
@@ -8652,72 +8687,72 @@
       <c r="X66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y66" s="13" t="s">
-        <v>58</v>
+      <c r="Y66" s="13">
+        <v>78261</v>
       </c>
       <c r="Z66" s="13">
-        <v>78261</v>
+        <v>81210</v>
       </c>
       <c r="AA66" s="13">
-        <v>81210</v>
+        <v>115404</v>
       </c>
       <c r="AB66" s="13">
-        <v>115404</v>
+        <v>260735</v>
       </c>
       <c r="AC66" s="13">
-        <v>260735</v>
+        <v>127025</v>
       </c>
       <c r="AD66" s="13">
-        <v>127025</v>
+        <v>63093</v>
       </c>
       <c r="AE66" s="13">
-        <v>63093</v>
+        <v>60430</v>
       </c>
       <c r="AF66" s="13">
-        <v>60430</v>
+        <v>103642</v>
       </c>
       <c r="AG66" s="13">
-        <v>103642</v>
+        <v>113771</v>
       </c>
       <c r="AH66" s="13">
-        <v>113771</v>
+        <v>115053</v>
       </c>
       <c r="AI66" s="13">
-        <v>115053</v>
+        <v>189316</v>
       </c>
       <c r="AJ66" s="13">
-        <v>189316</v>
+        <v>284063</v>
       </c>
       <c r="AK66" s="13">
-        <v>284063</v>
+        <v>210418</v>
       </c>
       <c r="AL66" s="13">
-        <v>210418</v>
+        <v>391445</v>
       </c>
       <c r="AM66" s="13">
-        <v>391445</v>
+        <v>414663</v>
       </c>
       <c r="AN66" s="13">
-        <v>414663</v>
+        <v>462511</v>
       </c>
       <c r="AO66" s="13">
-        <v>462511</v>
+        <v>527092</v>
       </c>
       <c r="AP66" s="13">
-        <v>527092</v>
+        <v>376033</v>
       </c>
       <c r="AQ66" s="13">
-        <v>376033</v>
+        <v>490529</v>
       </c>
       <c r="AR66" s="13">
-        <v>490529</v>
+        <v>354112</v>
       </c>
       <c r="AS66" s="13">
-        <v>354112</v>
-      </c>
-      <c r="AT66" s="13">
         <v>192131</v>
       </c>
+      <c r="AT66" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AU66" s="13" t="s">
         <v>58</v>
       </c>
@@ -8743,7 +8778,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>60</v>
       </c>
@@ -8811,72 +8846,72 @@
       <c r="X67" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y67" s="11" t="s">
-        <v>58</v>
+      <c r="Y67" s="11">
+        <v>85101</v>
       </c>
       <c r="Z67" s="11">
-        <v>85101</v>
+        <v>58310</v>
       </c>
       <c r="AA67" s="11">
-        <v>58310</v>
+        <v>83824</v>
       </c>
       <c r="AB67" s="11">
-        <v>83824</v>
+        <v>94915</v>
       </c>
       <c r="AC67" s="11">
-        <v>94915</v>
+        <v>107496</v>
       </c>
       <c r="AD67" s="11">
-        <v>107496</v>
+        <v>131120</v>
       </c>
       <c r="AE67" s="11">
-        <v>131120</v>
+        <v>146204</v>
       </c>
       <c r="AF67" s="11">
-        <v>146204</v>
+        <v>164819</v>
       </c>
       <c r="AG67" s="11">
-        <v>164819</v>
+        <v>185554</v>
       </c>
       <c r="AH67" s="11">
-        <v>185554</v>
+        <v>149332</v>
       </c>
       <c r="AI67" s="11">
-        <v>149332</v>
+        <v>135439</v>
       </c>
       <c r="AJ67" s="11">
-        <v>135439</v>
+        <v>103965</v>
       </c>
       <c r="AK67" s="11">
-        <v>103965</v>
+        <v>92687</v>
       </c>
       <c r="AL67" s="11">
-        <v>92687</v>
+        <v>111338</v>
       </c>
       <c r="AM67" s="11">
-        <v>111338</v>
+        <v>125038</v>
       </c>
       <c r="AN67" s="11">
-        <v>125038</v>
+        <v>131340</v>
       </c>
       <c r="AO67" s="11">
-        <v>131340</v>
+        <v>197443</v>
       </c>
       <c r="AP67" s="11">
-        <v>197443</v>
+        <v>173477</v>
       </c>
       <c r="AQ67" s="11">
-        <v>173477</v>
+        <v>288089</v>
       </c>
       <c r="AR67" s="11">
-        <v>288089</v>
+        <v>238534</v>
       </c>
       <c r="AS67" s="11">
-        <v>238534</v>
-      </c>
-      <c r="AT67" s="11">
         <v>257384</v>
       </c>
+      <c r="AT67" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU67" s="11" t="s">
         <v>58</v>
       </c>
@@ -8902,7 +8937,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>61</v>
       </c>
@@ -9033,8 +9068,8 @@
       <c r="AS68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT68" s="13" t="s">
-        <v>58</v>
+      <c r="AT68" s="13">
+        <v>0</v>
       </c>
       <c r="AU68" s="13">
         <v>0</v>
@@ -9046,22 +9081,22 @@
         <v>0</v>
       </c>
       <c r="AX68" s="13">
-        <v>0</v>
+        <v>3725</v>
       </c>
       <c r="AY68" s="13">
-        <v>3725</v>
+        <v>70010</v>
       </c>
       <c r="AZ68" s="13">
-        <v>70010</v>
+        <v>281523</v>
       </c>
       <c r="BA68" s="13">
-        <v>281523</v>
+        <v>224619</v>
       </c>
       <c r="BB68" s="13">
-        <v>224619</v>
+        <v>86580</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>62</v>
       </c>
@@ -9129,8 +9164,8 @@
       <c r="X69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y69" s="11" t="s">
-        <v>58</v>
+      <c r="Y69" s="11">
+        <v>0</v>
       </c>
       <c r="Z69" s="11">
         <v>0</v>
@@ -9156,8 +9191,8 @@
       <c r="AG69" s="11">
         <v>0</v>
       </c>
-      <c r="AH69" s="11">
-        <v>0</v>
+      <c r="AH69" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI69" s="11" t="s">
         <v>58</v>
@@ -9220,7 +9255,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>63</v>
       </c>
@@ -9351,35 +9386,35 @@
       <c r="AS70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT70" s="13" t="s">
-        <v>58</v>
+      <c r="AT70" s="13">
+        <v>214180</v>
       </c>
       <c r="AU70" s="13">
-        <v>214180</v>
+        <v>219881</v>
       </c>
       <c r="AV70" s="13">
-        <v>219881</v>
+        <v>275089</v>
       </c>
       <c r="AW70" s="13">
-        <v>275089</v>
+        <v>308347</v>
       </c>
       <c r="AX70" s="13">
-        <v>308347</v>
+        <v>321477</v>
       </c>
       <c r="AY70" s="13">
-        <v>321477</v>
+        <v>330122</v>
       </c>
       <c r="AZ70" s="13">
-        <v>330122</v>
+        <v>381943</v>
       </c>
       <c r="BA70" s="13">
-        <v>381943</v>
+        <v>432409</v>
       </c>
       <c r="BB70" s="13">
-        <v>432409</v>
+        <v>441986</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>64</v>
       </c>
@@ -9510,35 +9545,35 @@
       <c r="AS71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT71" s="11" t="s">
-        <v>58</v>
+      <c r="AT71" s="11">
+        <v>154852</v>
       </c>
       <c r="AU71" s="11">
-        <v>154852</v>
+        <v>204585</v>
       </c>
       <c r="AV71" s="11">
-        <v>204585</v>
+        <v>172085</v>
       </c>
       <c r="AW71" s="11">
-        <v>172085</v>
+        <v>347752</v>
       </c>
       <c r="AX71" s="11">
-        <v>347752</v>
+        <v>337041</v>
       </c>
       <c r="AY71" s="11">
-        <v>337041</v>
+        <v>357282</v>
       </c>
       <c r="AZ71" s="11">
-        <v>357282</v>
+        <v>407491</v>
       </c>
       <c r="BA71" s="11">
-        <v>407491</v>
+        <v>456072</v>
       </c>
       <c r="BB71" s="11">
-        <v>456072</v>
+        <v>305797</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B72" s="14" t="s">
         <v>74</v>
       </c>
@@ -9605,97 +9640,97 @@
         <v>0</v>
       </c>
       <c r="Y72" s="15">
-        <v>0</v>
+        <v>165888</v>
       </c>
       <c r="Z72" s="15">
-        <v>165888</v>
+        <v>143266</v>
       </c>
       <c r="AA72" s="15">
-        <v>143266</v>
+        <v>201585</v>
       </c>
       <c r="AB72" s="15">
-        <v>201585</v>
+        <v>358540</v>
       </c>
       <c r="AC72" s="15">
-        <v>358540</v>
+        <v>237885</v>
       </c>
       <c r="AD72" s="15">
-        <v>237885</v>
+        <v>196887</v>
       </c>
       <c r="AE72" s="15">
-        <v>196887</v>
+        <v>208506</v>
       </c>
       <c r="AF72" s="15">
-        <v>208506</v>
+        <v>270785</v>
       </c>
       <c r="AG72" s="15">
-        <v>270785</v>
+        <v>300929</v>
       </c>
       <c r="AH72" s="15">
-        <v>300929</v>
+        <v>266224</v>
       </c>
       <c r="AI72" s="15">
-        <v>266224</v>
+        <v>327433</v>
       </c>
       <c r="AJ72" s="15">
-        <v>327433</v>
+        <v>390268</v>
       </c>
       <c r="AK72" s="15">
-        <v>390268</v>
+        <v>305066</v>
       </c>
       <c r="AL72" s="15">
-        <v>305066</v>
+        <v>505036</v>
       </c>
       <c r="AM72" s="15">
-        <v>505036</v>
+        <v>543876</v>
       </c>
       <c r="AN72" s="15">
-        <v>543876</v>
+        <v>598694</v>
       </c>
       <c r="AO72" s="15">
-        <v>598694</v>
+        <v>732088</v>
       </c>
       <c r="AP72" s="15">
-        <v>732088</v>
+        <v>553256</v>
       </c>
       <c r="AQ72" s="15">
-        <v>553256</v>
+        <v>780816</v>
       </c>
       <c r="AR72" s="15">
-        <v>780816</v>
+        <v>594896</v>
       </c>
       <c r="AS72" s="15">
-        <v>594896</v>
+        <v>450885</v>
       </c>
       <c r="AT72" s="15">
-        <v>450885</v>
+        <v>371200</v>
       </c>
       <c r="AU72" s="15">
-        <v>371200</v>
+        <v>425260</v>
       </c>
       <c r="AV72" s="15">
-        <v>425260</v>
+        <v>447986</v>
       </c>
       <c r="AW72" s="15">
-        <v>447986</v>
+        <v>657255</v>
       </c>
       <c r="AX72" s="15">
-        <v>657255</v>
+        <v>664510</v>
       </c>
       <c r="AY72" s="15">
-        <v>664510</v>
+        <v>759083</v>
       </c>
       <c r="AZ72" s="15">
-        <v>759083</v>
+        <v>1074323</v>
       </c>
       <c r="BA72" s="15">
-        <v>1074323</v>
+        <v>1120577</v>
       </c>
       <c r="BB72" s="15">
-        <v>1120577</v>
+        <v>839413</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B73" s="16" t="s">
         <v>82</v>
       </c>
@@ -9752,7 +9787,7 @@
       <c r="BA73" s="17"/>
       <c r="BB73" s="17"/>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B74" s="18" t="s">
         <v>76</v>
       </c>
@@ -9909,7 +9944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>83</v>
       </c>
@@ -9966,7 +10001,7 @@
       <c r="BA75" s="9"/>
       <c r="BB75" s="9"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>56</v>
       </c>
@@ -10034,8 +10069,8 @@
       <c r="X76" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y76" s="11" t="s">
-        <v>58</v>
+      <c r="Y76" s="11">
+        <v>0</v>
       </c>
       <c r="Z76" s="11">
         <v>0</v>
@@ -10058,8 +10093,8 @@
       <c r="AF76" s="11">
         <v>0</v>
       </c>
-      <c r="AG76" s="11">
-        <v>0</v>
+      <c r="AG76" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH76" s="11" t="s">
         <v>58</v>
@@ -10125,7 +10160,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
         <v>59</v>
       </c>
@@ -10193,8 +10228,8 @@
       <c r="X77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y77" s="13" t="s">
-        <v>58</v>
+      <c r="Y77" s="13">
+        <v>0</v>
       </c>
       <c r="Z77" s="13">
         <v>0</v>
@@ -10217,8 +10252,8 @@
       <c r="AF77" s="13">
         <v>0</v>
       </c>
-      <c r="AG77" s="13">
-        <v>0</v>
+      <c r="AG77" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH77" s="13" t="s">
         <v>58</v>
@@ -10284,7 +10319,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>60</v>
       </c>
@@ -10352,8 +10387,8 @@
       <c r="X78" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y78" s="11" t="s">
-        <v>58</v>
+      <c r="Y78" s="11">
+        <v>0</v>
       </c>
       <c r="Z78" s="11">
         <v>0</v>
@@ -10376,8 +10411,8 @@
       <c r="AF78" s="11">
         <v>0</v>
       </c>
-      <c r="AG78" s="11">
-        <v>0</v>
+      <c r="AG78" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH78" s="11" t="s">
         <v>58</v>
@@ -10443,7 +10478,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
         <v>69</v>
       </c>
@@ -10568,14 +10603,14 @@
       <c r="AQ79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR79" s="13" t="s">
-        <v>58</v>
+      <c r="AR79" s="13">
+        <v>0</v>
       </c>
       <c r="AS79" s="13">
         <v>0</v>
       </c>
-      <c r="AT79" s="13">
-        <v>0</v>
+      <c r="AT79" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU79" s="13" t="s">
         <v>58</v>
@@ -10602,7 +10637,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B80" s="18" t="s">
         <v>70</v>
       </c>
@@ -10670,8 +10705,8 @@
       <c r="X80" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Y80" s="19" t="s">
-        <v>58</v>
+      <c r="Y80" s="19">
+        <v>0</v>
       </c>
       <c r="Z80" s="19">
         <v>0</v>
@@ -10728,10 +10763,10 @@
         <v>0</v>
       </c>
       <c r="AR80" s="19">
-        <v>0</v>
+        <v>27507</v>
       </c>
       <c r="AS80" s="19">
-        <v>27507</v>
+        <v>0</v>
       </c>
       <c r="AT80" s="19">
         <v>0</v>
@@ -10761,7 +10796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>84</v>
       </c>
@@ -10818,7 +10853,7 @@
       <c r="BA81" s="9"/>
       <c r="BB81" s="9"/>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>56</v>
       </c>
@@ -10886,44 +10921,44 @@
       <c r="X82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y82" s="11" t="s">
-        <v>58</v>
+      <c r="Y82" s="11">
+        <v>-150</v>
       </c>
       <c r="Z82" s="11">
-        <v>-150</v>
+        <v>-207</v>
       </c>
       <c r="AA82" s="11">
-        <v>-207</v>
+        <v>-151</v>
       </c>
       <c r="AB82" s="11">
-        <v>-151</v>
+        <v>-164</v>
       </c>
       <c r="AC82" s="11">
-        <v>-164</v>
+        <v>-95</v>
       </c>
       <c r="AD82" s="11">
-        <v>-95</v>
+        <v>-39</v>
       </c>
       <c r="AE82" s="11">
-        <v>-39</v>
+        <v>0</v>
       </c>
       <c r="AF82" s="11">
-        <v>0</v>
+        <v>-41</v>
       </c>
       <c r="AG82" s="11">
-        <v>-41</v>
+        <v>0</v>
       </c>
       <c r="AH82" s="11">
         <v>0</v>
       </c>
       <c r="AI82" s="11">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="AJ82" s="11">
-        <v>-23</v>
+        <v>-404</v>
       </c>
       <c r="AK82" s="11">
-        <v>-404</v>
+        <v>0</v>
       </c>
       <c r="AL82" s="11">
         <v>0</v>
@@ -10935,49 +10970,49 @@
         <v>0</v>
       </c>
       <c r="AO82" s="11">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AP82" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ82" s="11">
+        <v>-75</v>
+      </c>
+      <c r="AR82" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS82" s="11">
+        <v>-129</v>
+      </c>
+      <c r="AT82" s="11">
+        <v>-20</v>
+      </c>
+      <c r="AU82" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV82" s="11">
         <v>-3</v>
       </c>
-      <c r="AQ82" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR82" s="11">
-        <v>-75</v>
-      </c>
-      <c r="AS82" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT82" s="11">
-        <v>-129</v>
-      </c>
-      <c r="AU82" s="11">
-        <v>-20</v>
-      </c>
-      <c r="AV82" s="11">
-        <v>0</v>
-      </c>
       <c r="AW82" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX82" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY82" s="11">
+        <v>-1</v>
+      </c>
+      <c r="AZ82" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA82" s="11">
         <v>-3</v>
       </c>
-      <c r="AX82" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY82" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ82" s="11">
-        <v>-1</v>
-      </c>
-      <c r="BA82" s="11">
-        <v>0</v>
-      </c>
       <c r="BB82" s="11">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B83" s="12" t="s">
         <v>59</v>
       </c>
@@ -11045,72 +11080,72 @@
       <c r="X83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y83" s="13" t="s">
-        <v>58</v>
+      <c r="Y83" s="13">
+        <v>-702</v>
       </c>
       <c r="Z83" s="13">
-        <v>-702</v>
+        <v>-330</v>
       </c>
       <c r="AA83" s="13">
-        <v>-330</v>
+        <v>-413</v>
       </c>
       <c r="AB83" s="13">
-        <v>-413</v>
+        <v>-1497</v>
       </c>
       <c r="AC83" s="13">
-        <v>-1497</v>
+        <v>-1211</v>
       </c>
       <c r="AD83" s="13">
-        <v>-1211</v>
+        <v>-3439</v>
       </c>
       <c r="AE83" s="13">
-        <v>-3439</v>
+        <v>-912</v>
       </c>
       <c r="AF83" s="13">
-        <v>-912</v>
+        <v>-150</v>
       </c>
       <c r="AG83" s="13">
-        <v>-150</v>
+        <v>-378</v>
       </c>
       <c r="AH83" s="13">
-        <v>-378</v>
+        <v>-1576</v>
       </c>
       <c r="AI83" s="13">
-        <v>-1576</v>
+        <v>-4353</v>
       </c>
       <c r="AJ83" s="13">
-        <v>-4353</v>
+        <v>-2830</v>
       </c>
       <c r="AK83" s="13">
-        <v>-2830</v>
+        <v>-10101</v>
       </c>
       <c r="AL83" s="13">
-        <v>-10101</v>
+        <v>-589</v>
       </c>
       <c r="AM83" s="13">
-        <v>-589</v>
+        <v>-440</v>
       </c>
       <c r="AN83" s="13">
-        <v>-440</v>
+        <v>-12138</v>
       </c>
       <c r="AO83" s="13">
-        <v>-12138</v>
+        <v>-25315</v>
       </c>
       <c r="AP83" s="13">
-        <v>-25315</v>
+        <v>-8680</v>
       </c>
       <c r="AQ83" s="13">
-        <v>-8680</v>
+        <v>-2044</v>
       </c>
       <c r="AR83" s="13">
-        <v>-2044</v>
+        <v>-280</v>
       </c>
       <c r="AS83" s="13">
-        <v>-280</v>
-      </c>
-      <c r="AT83" s="13">
         <v>-7164</v>
       </c>
+      <c r="AT83" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AU83" s="13" t="s">
         <v>58</v>
       </c>
@@ -11136,7 +11171,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>60</v>
       </c>
@@ -11204,71 +11239,71 @@
       <c r="X84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y84" s="11" t="s">
-        <v>58</v>
+      <c r="Y84" s="11">
+        <v>-261</v>
       </c>
       <c r="Z84" s="11">
-        <v>-261</v>
+        <v>-232</v>
       </c>
       <c r="AA84" s="11">
-        <v>-232</v>
+        <v>-123</v>
       </c>
       <c r="AB84" s="11">
-        <v>-123</v>
+        <v>-215</v>
       </c>
       <c r="AC84" s="11">
-        <v>-215</v>
+        <v>-537</v>
       </c>
       <c r="AD84" s="11">
-        <v>-537</v>
+        <v>-492</v>
       </c>
       <c r="AE84" s="11">
-        <v>-492</v>
+        <v>0</v>
       </c>
       <c r="AF84" s="11">
-        <v>0</v>
+        <v>-4229</v>
       </c>
       <c r="AG84" s="11">
-        <v>-4229</v>
+        <v>-1007</v>
       </c>
       <c r="AH84" s="11">
-        <v>-1007</v>
+        <v>-432</v>
       </c>
       <c r="AI84" s="11">
-        <v>-432</v>
+        <v>-310</v>
       </c>
       <c r="AJ84" s="11">
-        <v>-310</v>
+        <v>-604</v>
       </c>
       <c r="AK84" s="11">
-        <v>-604</v>
+        <v>-318</v>
       </c>
       <c r="AL84" s="11">
-        <v>-318</v>
+        <v>-6</v>
       </c>
       <c r="AM84" s="11">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="AN84" s="11">
+        <v>-7</v>
+      </c>
+      <c r="AO84" s="11">
+        <v>-12</v>
+      </c>
+      <c r="AP84" s="11">
+        <v>-19</v>
+      </c>
+      <c r="AQ84" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR84" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS84" s="11">
         <v>-3</v>
       </c>
-      <c r="AO84" s="11">
-        <v>-7</v>
-      </c>
-      <c r="AP84" s="11">
-        <v>-12</v>
-      </c>
-      <c r="AQ84" s="11">
-        <v>-19</v>
-      </c>
-      <c r="AR84" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS84" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT84" s="11">
-        <v>-3</v>
+      <c r="AT84" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU84" s="11" t="s">
         <v>58</v>
@@ -11295,7 +11330,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B85" s="12" t="s">
         <v>61</v>
       </c>
@@ -11438,23 +11473,23 @@
       <c r="AW85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX85" s="13" t="s">
-        <v>58</v>
+      <c r="AX85" s="13">
+        <v>-194</v>
       </c>
       <c r="AY85" s="13">
-        <v>-194</v>
+        <v>0</v>
       </c>
       <c r="AZ85" s="13">
-        <v>0</v>
+        <v>-123</v>
       </c>
       <c r="BA85" s="13">
-        <v>-123</v>
+        <v>-284</v>
       </c>
       <c r="BB85" s="13">
-        <v>-284</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>63</v>
       </c>
@@ -11585,35 +11620,35 @@
       <c r="AS86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT86" s="11" t="s">
-        <v>58</v>
+      <c r="AT86" s="11">
+        <v>0</v>
       </c>
       <c r="AU86" s="11">
         <v>0</v>
       </c>
       <c r="AV86" s="11">
-        <v>0</v>
+        <v>-78</v>
       </c>
       <c r="AW86" s="11">
-        <v>-78</v>
+        <v>-10</v>
       </c>
       <c r="AX86" s="11">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AY86" s="11">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="AZ86" s="11">
-        <v>-22</v>
+        <v>-36</v>
       </c>
       <c r="BA86" s="11">
-        <v>-36</v>
+        <v>-7</v>
       </c>
       <c r="BB86" s="11">
-        <v>-7</v>
+        <v>-105</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B87" s="12" t="s">
         <v>64</v>
       </c>
@@ -11744,35 +11779,35 @@
       <c r="AS87" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT87" s="13" t="s">
-        <v>58</v>
+      <c r="AT87" s="13">
+        <v>-6565</v>
       </c>
       <c r="AU87" s="13">
-        <v>-6565</v>
+        <v>-7313</v>
       </c>
       <c r="AV87" s="13">
-        <v>-7313</v>
+        <v>-1635</v>
       </c>
       <c r="AW87" s="13">
-        <v>-1635</v>
+        <v>-1184</v>
       </c>
       <c r="AX87" s="13">
-        <v>-1184</v>
+        <v>-10</v>
       </c>
       <c r="AY87" s="13">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AZ87" s="13">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="BA87" s="13">
-        <v>-30</v>
+        <v>-1049</v>
       </c>
       <c r="BB87" s="13">
-        <v>-1049</v>
+        <v>-142</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B88" s="18" t="s">
         <v>78</v>
       </c>
@@ -11840,98 +11875,98 @@
       <c r="X88" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Y88" s="19" t="s">
-        <v>58</v>
+      <c r="Y88" s="19">
+        <v>-1113</v>
       </c>
       <c r="Z88" s="19">
-        <v>-1113</v>
+        <v>-769</v>
       </c>
       <c r="AA88" s="19">
-        <v>-769</v>
+        <v>-687</v>
       </c>
       <c r="AB88" s="19">
-        <v>-687</v>
+        <v>-1876</v>
       </c>
       <c r="AC88" s="19">
-        <v>-1876</v>
+        <v>-1843</v>
       </c>
       <c r="AD88" s="19">
-        <v>-1843</v>
+        <v>-3970</v>
       </c>
       <c r="AE88" s="19">
-        <v>-3970</v>
+        <v>-912</v>
       </c>
       <c r="AF88" s="19">
-        <v>-912</v>
+        <v>-4420</v>
       </c>
       <c r="AG88" s="19">
-        <v>-4420</v>
+        <v>-1385</v>
       </c>
       <c r="AH88" s="19">
-        <v>-1385</v>
+        <v>-2008</v>
       </c>
       <c r="AI88" s="19">
-        <v>-2008</v>
+        <v>-4686</v>
       </c>
       <c r="AJ88" s="19">
-        <v>-4686</v>
+        <v>-3838</v>
       </c>
       <c r="AK88" s="19">
-        <v>-3838</v>
+        <v>-10419</v>
       </c>
       <c r="AL88" s="19">
-        <v>-10419</v>
+        <v>-595</v>
       </c>
       <c r="AM88" s="19">
-        <v>-595</v>
+        <v>-443</v>
       </c>
       <c r="AN88" s="19">
-        <v>-443</v>
+        <v>-12145</v>
       </c>
       <c r="AO88" s="19">
-        <v>-12145</v>
+        <v>-25330</v>
       </c>
       <c r="AP88" s="19">
-        <v>-25330</v>
+        <v>-8699</v>
       </c>
       <c r="AQ88" s="19">
-        <v>-8699</v>
+        <v>-2119</v>
       </c>
       <c r="AR88" s="19">
-        <v>-2119</v>
+        <v>-280</v>
       </c>
       <c r="AS88" s="19">
-        <v>-280</v>
+        <v>-7296</v>
       </c>
       <c r="AT88" s="19">
-        <v>-7296</v>
+        <v>-6585</v>
       </c>
       <c r="AU88" s="19">
-        <v>-6585</v>
+        <v>-7313</v>
       </c>
       <c r="AV88" s="19">
-        <v>-7313</v>
+        <v>-1716</v>
       </c>
       <c r="AW88" s="19">
-        <v>-1716</v>
+        <v>-1194</v>
       </c>
       <c r="AX88" s="19">
-        <v>-1194</v>
+        <v>-204</v>
       </c>
       <c r="AY88" s="19">
-        <v>-204</v>
+        <v>-23</v>
       </c>
       <c r="AZ88" s="19">
-        <v>-23</v>
+        <v>-189</v>
       </c>
       <c r="BA88" s="19">
-        <v>-189</v>
+        <v>-1343</v>
       </c>
       <c r="BB88" s="19">
-        <v>-1343</v>
+        <v>-247</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>85</v>
       </c>
@@ -11988,7 +12023,7 @@
       <c r="BA89" s="9"/>
       <c r="BB89" s="9"/>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>86</v>
       </c>
@@ -12056,8 +12091,8 @@
       <c r="X90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y90" s="11" t="s">
-        <v>58</v>
+      <c r="Y90" s="11">
+        <v>0</v>
       </c>
       <c r="Z90" s="11">
         <v>0</v>
@@ -12147,7 +12182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B91" s="14" t="s">
         <v>71</v>
       </c>
@@ -12214,97 +12249,97 @@
         <v>0</v>
       </c>
       <c r="Y91" s="15">
-        <v>0</v>
+        <v>164775</v>
       </c>
       <c r="Z91" s="15">
-        <v>164775</v>
+        <v>142497</v>
       </c>
       <c r="AA91" s="15">
-        <v>142497</v>
+        <v>200898</v>
       </c>
       <c r="AB91" s="15">
-        <v>200898</v>
+        <v>356664</v>
       </c>
       <c r="AC91" s="15">
-        <v>356664</v>
+        <v>236042</v>
       </c>
       <c r="AD91" s="15">
-        <v>236042</v>
+        <v>192917</v>
       </c>
       <c r="AE91" s="15">
-        <v>192917</v>
+        <v>207594</v>
       </c>
       <c r="AF91" s="15">
-        <v>207594</v>
+        <v>266365</v>
       </c>
       <c r="AG91" s="15">
-        <v>266365</v>
+        <v>299544</v>
       </c>
       <c r="AH91" s="15">
-        <v>299544</v>
+        <v>264216</v>
       </c>
       <c r="AI91" s="15">
-        <v>264216</v>
+        <v>322747</v>
       </c>
       <c r="AJ91" s="15">
-        <v>322747</v>
+        <v>386430</v>
       </c>
       <c r="AK91" s="15">
-        <v>386430</v>
+        <v>294647</v>
       </c>
       <c r="AL91" s="15">
-        <v>294647</v>
+        <v>504441</v>
       </c>
       <c r="AM91" s="15">
-        <v>504441</v>
+        <v>543433</v>
       </c>
       <c r="AN91" s="15">
-        <v>543433</v>
+        <v>586549</v>
       </c>
       <c r="AO91" s="15">
-        <v>586549</v>
+        <v>706758</v>
       </c>
       <c r="AP91" s="15">
-        <v>706758</v>
+        <v>544557</v>
       </c>
       <c r="AQ91" s="15">
-        <v>544557</v>
+        <v>778697</v>
       </c>
       <c r="AR91" s="15">
-        <v>778697</v>
+        <v>594616</v>
       </c>
       <c r="AS91" s="15">
-        <v>594616</v>
+        <v>443589</v>
       </c>
       <c r="AT91" s="15">
-        <v>443589</v>
+        <v>364615</v>
       </c>
       <c r="AU91" s="15">
-        <v>364615</v>
+        <v>417947</v>
       </c>
       <c r="AV91" s="15">
-        <v>417947</v>
+        <v>446270</v>
       </c>
       <c r="AW91" s="15">
-        <v>446270</v>
+        <v>656061</v>
       </c>
       <c r="AX91" s="15">
-        <v>656061</v>
+        <v>664306</v>
       </c>
       <c r="AY91" s="15">
-        <v>664306</v>
+        <v>759060</v>
       </c>
       <c r="AZ91" s="15">
-        <v>759060</v>
+        <v>1074134</v>
       </c>
       <c r="BA91" s="15">
-        <v>1074134</v>
+        <v>1119234</v>
       </c>
       <c r="BB91" s="15">
-        <v>1119234</v>
+        <v>839166</v>
       </c>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -12359,7 +12394,7 @@
       <c r="BA92" s="1"/>
       <c r="BB92" s="1"/>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -12414,7 +12449,7 @@
       <c r="BA93" s="1"/>
       <c r="BB93" s="1"/>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -12469,7 +12504,7 @@
       <c r="BA94" s="1"/>
       <c r="BB94" s="1"/>
     </row>
-    <row r="95" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B95" s="7" t="s">
         <v>87</v>
       </c>
@@ -12626,7 +12661,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -12681,7 +12716,7 @@
       <c r="BA96" s="1"/>
       <c r="BB96" s="1"/>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>88</v>
       </c>
@@ -12738,7 +12773,7 @@
       <c r="BA97" s="9"/>
       <c r="BB97" s="9"/>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>56</v>
       </c>
@@ -12806,98 +12841,98 @@
       <c r="X98" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y98" s="11" t="s">
-        <v>58</v>
+      <c r="Y98" s="11">
+        <v>90214286</v>
       </c>
       <c r="Z98" s="11">
-        <v>90214286</v>
+        <v>91365854</v>
       </c>
       <c r="AA98" s="11">
-        <v>91365854</v>
+        <v>98208333</v>
       </c>
       <c r="AB98" s="11">
-        <v>98208333</v>
+        <v>82571429</v>
       </c>
       <c r="AC98" s="11">
-        <v>82571429</v>
+        <v>58000000</v>
       </c>
       <c r="AD98" s="11">
-        <v>58000000</v>
+        <v>74277778</v>
       </c>
       <c r="AE98" s="11">
-        <v>74277778</v>
+        <v>93600000</v>
       </c>
       <c r="AF98" s="11">
-        <v>93600000</v>
+        <v>77466667</v>
       </c>
       <c r="AG98" s="11">
-        <v>77466667</v>
+        <v>84421053</v>
       </c>
       <c r="AH98" s="11">
-        <v>84421053</v>
+        <v>49702703</v>
       </c>
       <c r="AI98" s="11">
-        <v>49702703</v>
+        <v>36189189</v>
       </c>
       <c r="AJ98" s="11">
-        <v>36189189</v>
+        <v>29866667</v>
       </c>
       <c r="AK98" s="11">
-        <v>29866667</v>
+        <v>25467532</v>
       </c>
       <c r="AL98" s="11">
-        <v>25467532</v>
+        <v>22989796</v>
       </c>
       <c r="AM98" s="11">
-        <v>22989796</v>
+        <v>28793103</v>
       </c>
       <c r="AN98" s="11">
-        <v>28793103</v>
+        <v>29174699</v>
       </c>
       <c r="AO98" s="11">
-        <v>29174699</v>
+        <v>28938697</v>
       </c>
       <c r="AP98" s="11">
-        <v>28938697</v>
+        <v>29730159</v>
       </c>
       <c r="AQ98" s="11">
-        <v>29730159</v>
+        <v>32805970</v>
       </c>
       <c r="AR98" s="11">
-        <v>32805970</v>
+        <v>32608696</v>
       </c>
       <c r="AS98" s="11">
-        <v>32608696</v>
+        <v>31136364</v>
       </c>
       <c r="AT98" s="11">
-        <v>31136364</v>
+        <v>34412698</v>
       </c>
       <c r="AU98" s="11">
-        <v>34412698</v>
+        <v>25612903</v>
       </c>
       <c r="AV98" s="11">
-        <v>25612903</v>
+        <v>62461538</v>
       </c>
       <c r="AW98" s="11">
-        <v>62461538</v>
+        <v>35030303</v>
       </c>
       <c r="AX98" s="11">
-        <v>35030303</v>
+        <v>41218182</v>
       </c>
       <c r="AY98" s="11">
-        <v>41218182</v>
+        <v>50575758</v>
       </c>
       <c r="AZ98" s="11">
-        <v>50575758</v>
+        <v>40071429</v>
       </c>
       <c r="BA98" s="11">
-        <v>40071429</v>
+        <v>40416216</v>
       </c>
       <c r="BB98" s="11">
-        <v>40416216</v>
+        <v>41056911</v>
       </c>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B99" s="12" t="s">
         <v>59</v>
       </c>
@@ -12965,72 +13000,72 @@
       <c r="X99" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y99" s="13" t="s">
-        <v>58</v>
+      <c r="Y99" s="13">
+        <v>105901218</v>
       </c>
       <c r="Z99" s="13">
-        <v>105901218</v>
+        <v>113580420</v>
       </c>
       <c r="AA99" s="13">
-        <v>113580420</v>
+        <v>112042718</v>
       </c>
       <c r="AB99" s="13">
-        <v>112042718</v>
+        <v>96604298</v>
       </c>
       <c r="AC99" s="13">
-        <v>96604298</v>
+        <v>117833952</v>
       </c>
       <c r="AD99" s="13">
-        <v>117833952</v>
+        <v>122036750</v>
       </c>
       <c r="AE99" s="13">
-        <v>122036750</v>
+        <v>123326531</v>
       </c>
       <c r="AF99" s="13">
-        <v>123326531</v>
+        <v>124420168</v>
       </c>
       <c r="AG99" s="13">
-        <v>124420168</v>
+        <v>127832584</v>
       </c>
       <c r="AH99" s="13">
-        <v>127832584</v>
+        <v>128838746</v>
       </c>
       <c r="AI99" s="13">
-        <v>128838746</v>
+        <v>115015796</v>
       </c>
       <c r="AJ99" s="13">
-        <v>115015796</v>
+        <v>123666957</v>
       </c>
       <c r="AK99" s="13">
-        <v>123666957</v>
+        <v>156911260</v>
       </c>
       <c r="AL99" s="13">
-        <v>156911260</v>
+        <v>144497970</v>
       </c>
       <c r="AM99" s="13">
-        <v>144497970</v>
+        <v>251921628</v>
       </c>
       <c r="AN99" s="13">
-        <v>251921628</v>
+        <v>222789499</v>
       </c>
       <c r="AO99" s="13">
-        <v>222789499</v>
+        <v>260420949</v>
       </c>
       <c r="AP99" s="13">
-        <v>260420949</v>
+        <v>247552995</v>
       </c>
       <c r="AQ99" s="13">
-        <v>247552995</v>
+        <v>263867133</v>
       </c>
       <c r="AR99" s="13">
-        <v>263867133</v>
+        <v>257957576</v>
       </c>
       <c r="AS99" s="13">
-        <v>257957576</v>
-      </c>
-      <c r="AT99" s="13">
         <v>256516689</v>
       </c>
+      <c r="AT99" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AU99" s="13" t="s">
         <v>58</v>
       </c>
@@ -13056,7 +13091,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>60</v>
       </c>
@@ -13124,72 +13159,72 @@
       <c r="X100" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y100" s="11" t="s">
-        <v>58</v>
+      <c r="Y100" s="11">
+        <v>99533333</v>
       </c>
       <c r="Z100" s="11">
-        <v>99533333</v>
+        <v>105063063</v>
       </c>
       <c r="AA100" s="11">
-        <v>105063063</v>
+        <v>105174404</v>
       </c>
       <c r="AB100" s="11">
-        <v>105174404</v>
+        <v>114493366</v>
       </c>
       <c r="AC100" s="11">
-        <v>114493366</v>
+        <v>142946809</v>
       </c>
       <c r="AD100" s="11">
-        <v>142946809</v>
+        <v>146176143</v>
       </c>
       <c r="AE100" s="11">
-        <v>146176143</v>
+        <v>152933054</v>
       </c>
       <c r="AF100" s="11">
-        <v>152933054</v>
+        <v>155343073</v>
       </c>
       <c r="AG100" s="11">
-        <v>155343073</v>
+        <v>158322526</v>
       </c>
       <c r="AH100" s="11">
-        <v>158322526</v>
+        <v>171252294</v>
       </c>
       <c r="AI100" s="11">
-        <v>171252294</v>
+        <v>171659062</v>
       </c>
       <c r="AJ100" s="11">
-        <v>171659062</v>
+        <v>175025253</v>
       </c>
       <c r="AK100" s="11">
-        <v>175025253</v>
+        <v>165217469</v>
       </c>
       <c r="AL100" s="11">
-        <v>165217469</v>
+        <v>165928465</v>
       </c>
       <c r="AM100" s="11">
-        <v>165928465</v>
+        <v>168288022</v>
       </c>
       <c r="AN100" s="11">
-        <v>168288022</v>
+        <v>160170732</v>
       </c>
       <c r="AO100" s="11">
-        <v>160170732</v>
+        <v>170650821</v>
       </c>
       <c r="AP100" s="11">
-        <v>170650821</v>
+        <v>175584008</v>
       </c>
       <c r="AQ100" s="11">
-        <v>175584008</v>
+        <v>193348322</v>
       </c>
       <c r="AR100" s="11">
-        <v>193348322</v>
+        <v>226113417</v>
       </c>
       <c r="AS100" s="11">
-        <v>226113417</v>
-      </c>
-      <c r="AT100" s="11">
         <v>238760668</v>
       </c>
+      <c r="AT100" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU100" s="11" t="s">
         <v>58</v>
       </c>
@@ -13215,7 +13250,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B101" s="12" t="s">
         <v>61</v>
       </c>
@@ -13358,23 +13393,23 @@
       <c r="AW101" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX101" s="13" t="s">
-        <v>58</v>
+      <c r="AX101" s="13">
+        <v>310416667</v>
       </c>
       <c r="AY101" s="13">
-        <v>310416667</v>
+        <v>297914894</v>
       </c>
       <c r="AZ101" s="13">
-        <v>297914894</v>
+        <v>227769417</v>
       </c>
       <c r="BA101" s="13">
-        <v>227769417</v>
+        <v>227808316</v>
       </c>
       <c r="BB101" s="13">
-        <v>227808316</v>
+        <v>243887324</v>
       </c>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>63</v>
       </c>
@@ -13505,35 +13540,35 @@
       <c r="AS102" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT102" s="11" t="s">
-        <v>58</v>
+      <c r="AT102" s="11">
+        <v>252868949</v>
       </c>
       <c r="AU102" s="11">
-        <v>252868949</v>
+        <v>293958556</v>
       </c>
       <c r="AV102" s="11">
-        <v>293958556</v>
+        <v>442265273</v>
       </c>
       <c r="AW102" s="11">
-        <v>442265273</v>
+        <v>450141606</v>
       </c>
       <c r="AX102" s="11">
-        <v>450141606</v>
+        <v>438577080</v>
       </c>
       <c r="AY102" s="11">
-        <v>438577080</v>
+        <v>423233333</v>
       </c>
       <c r="AZ102" s="11">
-        <v>423233333</v>
+        <v>423910100</v>
       </c>
       <c r="BA102" s="11">
-        <v>423910100</v>
+        <v>422274414</v>
       </c>
       <c r="BB102" s="11">
-        <v>422274414</v>
+        <v>430785575</v>
       </c>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B103" s="12" t="s">
         <v>64</v>
       </c>
@@ -13664,35 +13699,35 @@
       <c r="AS103" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT103" s="13" t="s">
-        <v>58</v>
+      <c r="AT103" s="13">
+        <v>306637624</v>
       </c>
       <c r="AU103" s="13">
-        <v>306637624</v>
+        <v>332118506</v>
       </c>
       <c r="AV103" s="13">
-        <v>332118506</v>
+        <v>408752969</v>
       </c>
       <c r="AW103" s="13">
-        <v>408752969</v>
+        <v>409601885</v>
       </c>
       <c r="AX103" s="13">
-        <v>409601885</v>
+        <v>401239286</v>
       </c>
       <c r="AY103" s="13">
-        <v>401239286</v>
+        <v>386250811</v>
       </c>
       <c r="AZ103" s="13">
-        <v>386250811</v>
+        <v>373160256</v>
       </c>
       <c r="BA103" s="13">
-        <v>373160256</v>
+        <v>375367901</v>
       </c>
       <c r="BB103" s="13">
-        <v>375367901</v>
+        <v>368430120</v>
       </c>
     </row>
-    <row r="104" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
         <v>90</v>
       </c>
@@ -13749,7 +13784,7 @@
       <c r="BA104" s="9"/>
       <c r="BB104" s="9"/>
     </row>
-    <row r="105" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>56</v>
       </c>
@@ -13817,8 +13852,8 @@
       <c r="X105" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y105" s="11" t="s">
-        <v>58</v>
+      <c r="Y105" s="11">
+        <v>0</v>
       </c>
       <c r="Z105" s="11">
         <v>0</v>
@@ -13841,8 +13876,8 @@
       <c r="AF105" s="11">
         <v>0</v>
       </c>
-      <c r="AG105" s="11">
-        <v>0</v>
+      <c r="AG105" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH105" s="11" t="s">
         <v>58</v>
@@ -13908,7 +13943,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="106" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B106" s="12" t="s">
         <v>59</v>
       </c>
@@ -13976,8 +14011,8 @@
       <c r="X106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y106" s="13" t="s">
-        <v>58</v>
+      <c r="Y106" s="13">
+        <v>0</v>
       </c>
       <c r="Z106" s="13">
         <v>0</v>
@@ -14000,8 +14035,8 @@
       <c r="AF106" s="13">
         <v>0</v>
       </c>
-      <c r="AG106" s="13">
-        <v>0</v>
+      <c r="AG106" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH106" s="13" t="s">
         <v>58</v>
@@ -14067,7 +14102,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="107" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>60</v>
       </c>
@@ -14135,8 +14170,8 @@
       <c r="X107" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y107" s="11" t="s">
-        <v>58</v>
+      <c r="Y107" s="11">
+        <v>0</v>
       </c>
       <c r="Z107" s="11">
         <v>0</v>
@@ -14159,8 +14194,8 @@
       <c r="AF107" s="11">
         <v>0</v>
       </c>
-      <c r="AG107" s="11">
-        <v>0</v>
+      <c r="AG107" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH107" s="11" t="s">
         <v>58</v>
@@ -14226,7 +14261,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="108" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B108" s="12" t="s">
         <v>69</v>
       </c>
@@ -14351,14 +14386,14 @@
       <c r="AQ108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR108" s="13" t="s">
-        <v>58</v>
+      <c r="AR108" s="13">
+        <v>0</v>
       </c>
       <c r="AS108" s="13">
         <v>0</v>
       </c>
-      <c r="AT108" s="13">
-        <v>0</v>
+      <c r="AT108" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU108" s="13" t="s">
         <v>58</v>

--- a/database/industries/ghaza/gheshahdab/product/monthly_seprated.xlsx
+++ b/database/industries/ghaza/gheshahdab/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\gheshahdab\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\gheshahdab\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7BB662-D131-4B65-829C-5C4760998FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8C644D-D80C-4E47-9C18-E9C8D72FE6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2532" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2473" uniqueCount="91">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>غشهداب-کشت و صنعت شهداب ناب خراسان</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -775,12 +775,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -835,7 +835,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -892,7 +892,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -949,7 +949,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1004,7 +1004,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1061,7 +1061,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1118,7 +1118,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1173,7 +1173,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1385,7 +1385,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1442,7 +1442,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1504,104 +1504,104 @@
       <c r="V11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>58</v>
+      <c r="W11" s="11">
+        <v>46</v>
+      </c>
+      <c r="X11" s="11">
+        <v>55</v>
       </c>
       <c r="Y11" s="11">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="Z11" s="11">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="11">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="AB11" s="11">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AC11" s="11">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="AD11" s="11">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="AE11" s="11">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="AF11" s="11">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="AG11" s="11">
-        <v>92</v>
+        <v>356</v>
       </c>
       <c r="AH11" s="11">
-        <v>23</v>
+        <v>239</v>
       </c>
       <c r="AI11" s="11">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="AJ11" s="11">
-        <v>239</v>
+        <v>173</v>
       </c>
       <c r="AK11" s="11">
-        <v>219</v>
+        <v>139</v>
       </c>
       <c r="AL11" s="11">
-        <v>173</v>
+        <v>306</v>
       </c>
       <c r="AM11" s="11">
-        <v>139</v>
+        <v>329</v>
       </c>
       <c r="AN11" s="11">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="AO11" s="11">
-        <v>329</v>
+        <v>146</v>
       </c>
       <c r="AP11" s="11">
-        <v>275</v>
+        <v>94</v>
       </c>
       <c r="AQ11" s="11">
-        <v>146</v>
+        <v>236</v>
       </c>
       <c r="AR11" s="11">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="AS11" s="11">
-        <v>236</v>
+        <v>110</v>
       </c>
       <c r="AT11" s="11">
         <v>0</v>
       </c>
       <c r="AU11" s="11">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="AV11" s="11">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="AW11" s="11">
-        <v>190</v>
+        <v>59</v>
       </c>
       <c r="AX11" s="11">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="AY11" s="11">
-        <v>59</v>
+        <v>613</v>
       </c>
       <c r="AZ11" s="11">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="BA11" s="11">
-        <v>613</v>
+        <v>67</v>
       </c>
       <c r="BB11" s="11">
-        <v>122</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1663,75 +1663,75 @@
       <c r="V12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X12" s="13" t="s">
-        <v>58</v>
+      <c r="W12" s="13">
+        <v>957</v>
+      </c>
+      <c r="X12" s="13">
+        <v>1686</v>
       </c>
       <c r="Y12" s="13">
-        <v>957</v>
+        <v>7720</v>
       </c>
       <c r="Z12" s="13">
-        <v>1686</v>
+        <v>5273</v>
       </c>
       <c r="AA12" s="13">
-        <v>7720</v>
+        <v>584</v>
       </c>
       <c r="AB12" s="13">
-        <v>5273</v>
+        <v>444</v>
       </c>
       <c r="AC12" s="13">
-        <v>584</v>
+        <v>272</v>
       </c>
       <c r="AD12" s="13">
-        <v>444</v>
+        <v>409</v>
       </c>
       <c r="AE12" s="13">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="AF12" s="13">
-        <v>409</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="13">
-        <v>50</v>
+        <v>559</v>
       </c>
       <c r="AH12" s="13">
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="AI12" s="13">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="AJ12" s="13">
-        <v>655</v>
+        <v>965</v>
       </c>
       <c r="AK12" s="13">
-        <v>554</v>
+        <v>5260</v>
       </c>
       <c r="AL12" s="13">
-        <v>965</v>
+        <v>2243</v>
       </c>
       <c r="AM12" s="13">
-        <v>5260</v>
+        <v>1153</v>
       </c>
       <c r="AN12" s="13">
-        <v>2243</v>
+        <v>319</v>
       </c>
       <c r="AO12" s="13">
-        <v>1153</v>
+        <v>959</v>
       </c>
       <c r="AP12" s="13">
-        <v>319</v>
+        <v>1420</v>
       </c>
       <c r="AQ12" s="13">
-        <v>959</v>
-      </c>
-      <c r="AR12" s="13">
-        <v>170</v>
-      </c>
-      <c r="AS12" s="13">
         <v>725</v>
       </c>
+      <c r="AR12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS12" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT12" s="13" t="s">
         <v>58</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1822,75 +1822,75 @@
       <c r="V13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X13" s="11" t="s">
-        <v>58</v>
+      <c r="W13" s="11">
+        <v>847</v>
+      </c>
+      <c r="X13" s="11">
+        <v>410</v>
       </c>
       <c r="Y13" s="11">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="Z13" s="11">
-        <v>410</v>
+        <v>813</v>
       </c>
       <c r="AA13" s="11">
-        <v>836</v>
+        <v>756</v>
       </c>
       <c r="AB13" s="11">
-        <v>813</v>
+        <v>764</v>
       </c>
       <c r="AC13" s="11">
-        <v>756</v>
+        <v>1051</v>
       </c>
       <c r="AD13" s="11">
-        <v>764</v>
+        <v>1048</v>
       </c>
       <c r="AE13" s="11">
-        <v>1051</v>
+        <v>1171</v>
       </c>
       <c r="AF13" s="11">
-        <v>1048</v>
+        <v>843</v>
       </c>
       <c r="AG13" s="11">
-        <v>1171</v>
+        <v>786</v>
       </c>
       <c r="AH13" s="11">
-        <v>843</v>
+        <v>606</v>
       </c>
       <c r="AI13" s="11">
-        <v>786</v>
+        <v>543</v>
       </c>
       <c r="AJ13" s="11">
-        <v>606</v>
+        <v>713</v>
       </c>
       <c r="AK13" s="11">
-        <v>543</v>
+        <v>721</v>
       </c>
       <c r="AL13" s="11">
-        <v>713</v>
+        <v>805</v>
       </c>
       <c r="AM13" s="11">
-        <v>721</v>
+        <v>1197</v>
       </c>
       <c r="AN13" s="11">
-        <v>805</v>
+        <v>887</v>
       </c>
       <c r="AO13" s="11">
-        <v>1197</v>
+        <v>1529</v>
       </c>
       <c r="AP13" s="11">
-        <v>887</v>
+        <v>1027</v>
       </c>
       <c r="AQ13" s="11">
-        <v>1529</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>1027</v>
-      </c>
-      <c r="AS13" s="11">
         <v>1110</v>
       </c>
+      <c r="AR13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS13" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT13" s="11" t="s">
         <v>58</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -2044,11 +2044,11 @@
       <c r="AQ14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS14" s="13" t="s">
-        <v>58</v>
+      <c r="AR14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="13">
+        <v>0</v>
       </c>
       <c r="AT14" s="13">
         <v>0</v>
@@ -2057,28 +2057,28 @@
         <v>0</v>
       </c>
       <c r="AV14" s="13">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="AW14" s="13">
-        <v>0</v>
+        <v>2143</v>
       </c>
       <c r="AX14" s="13">
-        <v>228</v>
+        <v>4102</v>
       </c>
       <c r="AY14" s="13">
-        <v>2143</v>
+        <v>402</v>
       </c>
       <c r="AZ14" s="13">
-        <v>4102</v>
+        <v>0</v>
       </c>
       <c r="BA14" s="13">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="BB14" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2140,11 +2140,11 @@
       <c r="V15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X15" s="11" t="s">
-        <v>58</v>
+      <c r="W15" s="11">
+        <v>0</v>
+      </c>
+      <c r="X15" s="11">
+        <v>0</v>
       </c>
       <c r="Y15" s="11">
         <v>0</v>
@@ -2167,11 +2167,11 @@
       <c r="AE15" s="11">
         <v>0</v>
       </c>
-      <c r="AF15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="11">
-        <v>0</v>
+      <c r="AF15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG15" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH15" s="11" t="s">
         <v>58</v>
@@ -2237,7 +2237,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
@@ -2362,41 +2362,41 @@
       <c r="AQ16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS16" s="13" t="s">
-        <v>58</v>
+      <c r="AR16" s="13">
+        <v>869</v>
+      </c>
+      <c r="AS16" s="13">
+        <v>668</v>
       </c>
       <c r="AT16" s="13">
-        <v>869</v>
+        <v>703</v>
       </c>
       <c r="AU16" s="13">
-        <v>668</v>
+        <v>712</v>
       </c>
       <c r="AV16" s="13">
-        <v>703</v>
+        <v>681</v>
       </c>
       <c r="AW16" s="13">
-        <v>712</v>
+        <v>830</v>
       </c>
       <c r="AX16" s="13">
-        <v>681</v>
+        <v>776</v>
       </c>
       <c r="AY16" s="13">
-        <v>830</v>
+        <v>1180</v>
       </c>
       <c r="AZ16" s="13">
-        <v>776</v>
+        <v>984</v>
       </c>
       <c r="BA16" s="13">
-        <v>1180</v>
+        <v>1018</v>
       </c>
       <c r="BB16" s="13">
-        <v>984</v>
+        <v>1125</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>64</v>
       </c>
@@ -2521,41 +2521,41 @@
       <c r="AQ17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS17" s="11" t="s">
-        <v>58</v>
+      <c r="AR17" s="11">
+        <v>163</v>
+      </c>
+      <c r="AS17" s="11">
+        <v>543</v>
       </c>
       <c r="AT17" s="11">
-        <v>163</v>
+        <v>309</v>
       </c>
       <c r="AU17" s="11">
-        <v>543</v>
+        <v>940</v>
       </c>
       <c r="AV17" s="11">
-        <v>309</v>
+        <v>1001</v>
       </c>
       <c r="AW17" s="11">
-        <v>940</v>
+        <v>2504</v>
       </c>
       <c r="AX17" s="11">
-        <v>1001</v>
+        <v>1469</v>
       </c>
       <c r="AY17" s="11">
-        <v>2504</v>
+        <v>1142</v>
       </c>
       <c r="AZ17" s="11">
-        <v>1469</v>
+        <v>592</v>
       </c>
       <c r="BA17" s="11">
-        <v>1142</v>
+        <v>242</v>
       </c>
       <c r="BB17" s="11">
-        <v>592</v>
+        <v>872</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>65</v>
       </c>
@@ -2616,103 +2616,103 @@
         <v>0</v>
       </c>
       <c r="W18" s="15">
-        <v>0</v>
+        <v>1850</v>
       </c>
       <c r="X18" s="15">
-        <v>0</v>
+        <v>2151</v>
       </c>
       <c r="Y18" s="15">
-        <v>1850</v>
+        <v>8641</v>
       </c>
       <c r="Z18" s="15">
-        <v>2151</v>
+        <v>6086</v>
       </c>
       <c r="AA18" s="15">
-        <v>8641</v>
+        <v>1463</v>
       </c>
       <c r="AB18" s="15">
-        <v>6086</v>
+        <v>1253</v>
       </c>
       <c r="AC18" s="15">
-        <v>1463</v>
+        <v>1363</v>
       </c>
       <c r="AD18" s="15">
-        <v>1253</v>
+        <v>1605</v>
       </c>
       <c r="AE18" s="15">
-        <v>1363</v>
+        <v>1313</v>
       </c>
       <c r="AF18" s="15">
-        <v>1605</v>
+        <v>866</v>
       </c>
       <c r="AG18" s="15">
-        <v>1313</v>
+        <v>1701</v>
       </c>
       <c r="AH18" s="15">
-        <v>866</v>
+        <v>1500</v>
       </c>
       <c r="AI18" s="15">
-        <v>1701</v>
+        <v>1316</v>
       </c>
       <c r="AJ18" s="15">
-        <v>1500</v>
+        <v>1851</v>
       </c>
       <c r="AK18" s="15">
-        <v>1316</v>
+        <v>6120</v>
       </c>
       <c r="AL18" s="15">
-        <v>1851</v>
+        <v>3354</v>
       </c>
       <c r="AM18" s="15">
-        <v>6120</v>
+        <v>2679</v>
       </c>
       <c r="AN18" s="15">
-        <v>3354</v>
+        <v>1481</v>
       </c>
       <c r="AO18" s="15">
-        <v>2679</v>
+        <v>2634</v>
       </c>
       <c r="AP18" s="15">
-        <v>1481</v>
+        <v>2541</v>
       </c>
       <c r="AQ18" s="15">
-        <v>2634</v>
+        <v>2071</v>
       </c>
       <c r="AR18" s="15">
-        <v>1291</v>
+        <v>1032</v>
       </c>
       <c r="AS18" s="15">
-        <v>2071</v>
+        <v>1321</v>
       </c>
       <c r="AT18" s="15">
-        <v>1032</v>
+        <v>1012</v>
       </c>
       <c r="AU18" s="15">
-        <v>1321</v>
+        <v>1842</v>
       </c>
       <c r="AV18" s="15">
-        <v>1012</v>
+        <v>1983</v>
       </c>
       <c r="AW18" s="15">
-        <v>1842</v>
+        <v>5536</v>
       </c>
       <c r="AX18" s="15">
-        <v>1983</v>
+        <v>6444</v>
       </c>
       <c r="AY18" s="15">
-        <v>5536</v>
+        <v>3337</v>
       </c>
       <c r="AZ18" s="15">
-        <v>6444</v>
+        <v>1662</v>
       </c>
       <c r="BA18" s="15">
-        <v>3337</v>
+        <v>1327</v>
       </c>
       <c r="BB18" s="15">
-        <v>1698</v>
+        <v>2025</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
         <v>66</v>
       </c>
@@ -2769,7 +2769,7 @@
       <c r="BA19" s="17"/>
       <c r="BB19" s="17"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
         <v>67</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>68</v>
       </c>
@@ -2983,7 +2983,7 @@
       <c r="BA21" s="9"/>
       <c r="BB21" s="9"/>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>56</v>
       </c>
@@ -3045,11 +3045,11 @@
       <c r="V22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X22" s="11" t="s">
-        <v>58</v>
+      <c r="W22" s="11">
+        <v>0</v>
+      </c>
+      <c r="X22" s="11">
+        <v>0</v>
       </c>
       <c r="Y22" s="11">
         <v>0</v>
@@ -3069,11 +3069,11 @@
       <c r="AD22" s="11">
         <v>0</v>
       </c>
-      <c r="AE22" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="11">
-        <v>0</v>
+      <c r="AE22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF22" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG22" s="11" t="s">
         <v>58</v>
@@ -3142,7 +3142,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>59</v>
       </c>
@@ -3204,11 +3204,11 @@
       <c r="V23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W23" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X23" s="13" t="s">
-        <v>58</v>
+      <c r="W23" s="13">
+        <v>0</v>
+      </c>
+      <c r="X23" s="13">
+        <v>0</v>
       </c>
       <c r="Y23" s="13">
         <v>0</v>
@@ -3228,11 +3228,11 @@
       <c r="AD23" s="13">
         <v>0</v>
       </c>
-      <c r="AE23" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="13">
-        <v>0</v>
+      <c r="AE23" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF23" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG23" s="13" t="s">
         <v>58</v>
@@ -3301,7 +3301,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>60</v>
       </c>
@@ -3363,11 +3363,11 @@
       <c r="V24" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W24" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X24" s="11" t="s">
-        <v>58</v>
+      <c r="W24" s="11">
+        <v>0</v>
+      </c>
+      <c r="X24" s="11">
+        <v>0</v>
       </c>
       <c r="Y24" s="11">
         <v>0</v>
@@ -3387,11 +3387,11 @@
       <c r="AD24" s="11">
         <v>0</v>
       </c>
-      <c r="AE24" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="11">
-        <v>0</v>
+      <c r="AE24" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF24" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG24" s="11" t="s">
         <v>58</v>
@@ -3460,7 +3460,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>69</v>
       </c>
@@ -3585,8 +3585,8 @@
       <c r="AQ25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR25" s="13">
-        <v>0</v>
+      <c r="AR25" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS25" s="13" t="s">
         <v>58</v>
@@ -3619,7 +3619,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
         <v>70</v>
       </c>
@@ -3679,11 +3679,11 @@
       <c r="V26" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="W26" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="X26" s="19" t="s">
-        <v>58</v>
+      <c r="W26" s="19">
+        <v>0</v>
+      </c>
+      <c r="X26" s="19">
+        <v>0</v>
       </c>
       <c r="Y26" s="19">
         <v>0</v>
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
         <v>71</v>
       </c>
@@ -3837,103 +3837,103 @@
         <v>0</v>
       </c>
       <c r="W27" s="15">
-        <v>0</v>
+        <v>1850</v>
       </c>
       <c r="X27" s="15">
-        <v>0</v>
+        <v>2151</v>
       </c>
       <c r="Y27" s="15">
-        <v>1850</v>
+        <v>8641</v>
       </c>
       <c r="Z27" s="15">
-        <v>2151</v>
+        <v>6086</v>
       </c>
       <c r="AA27" s="15">
-        <v>8641</v>
+        <v>1463</v>
       </c>
       <c r="AB27" s="15">
-        <v>6086</v>
+        <v>1253</v>
       </c>
       <c r="AC27" s="15">
-        <v>1463</v>
+        <v>1363</v>
       </c>
       <c r="AD27" s="15">
-        <v>1253</v>
+        <v>1605</v>
       </c>
       <c r="AE27" s="15">
-        <v>1363</v>
+        <v>1313</v>
       </c>
       <c r="AF27" s="15">
-        <v>1605</v>
+        <v>866</v>
       </c>
       <c r="AG27" s="15">
-        <v>1313</v>
+        <v>1701</v>
       </c>
       <c r="AH27" s="15">
-        <v>866</v>
+        <v>1500</v>
       </c>
       <c r="AI27" s="15">
-        <v>1701</v>
+        <v>1316</v>
       </c>
       <c r="AJ27" s="15">
-        <v>1500</v>
+        <v>1851</v>
       </c>
       <c r="AK27" s="15">
-        <v>1316</v>
+        <v>6120</v>
       </c>
       <c r="AL27" s="15">
-        <v>1851</v>
+        <v>3354</v>
       </c>
       <c r="AM27" s="15">
-        <v>6120</v>
+        <v>2679</v>
       </c>
       <c r="AN27" s="15">
-        <v>3354</v>
+        <v>1481</v>
       </c>
       <c r="AO27" s="15">
-        <v>2679</v>
+        <v>2634</v>
       </c>
       <c r="AP27" s="15">
-        <v>1481</v>
+        <v>2541</v>
       </c>
       <c r="AQ27" s="15">
-        <v>2634</v>
+        <v>2071</v>
       </c>
       <c r="AR27" s="15">
-        <v>1291</v>
+        <v>1032</v>
       </c>
       <c r="AS27" s="15">
-        <v>2071</v>
+        <v>1321</v>
       </c>
       <c r="AT27" s="15">
-        <v>1032</v>
+        <v>1012</v>
       </c>
       <c r="AU27" s="15">
-        <v>1321</v>
+        <v>1842</v>
       </c>
       <c r="AV27" s="15">
-        <v>1012</v>
+        <v>1983</v>
       </c>
       <c r="AW27" s="15">
-        <v>1842</v>
+        <v>5536</v>
       </c>
       <c r="AX27" s="15">
-        <v>1983</v>
+        <v>6444</v>
       </c>
       <c r="AY27" s="15">
-        <v>5536</v>
+        <v>3337</v>
       </c>
       <c r="AZ27" s="15">
-        <v>6444</v>
+        <v>1662</v>
       </c>
       <c r="BA27" s="15">
-        <v>3337</v>
+        <v>1327</v>
       </c>
       <c r="BB27" s="15">
-        <v>1698</v>
+        <v>2025</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3988,7 +3988,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -4043,7 +4043,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -4098,7 +4098,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
         <v>72</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -4310,7 +4310,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>73</v>
       </c>
@@ -4367,7 +4367,7 @@
       <c r="BA33" s="9"/>
       <c r="BB33" s="9"/>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>56</v>
       </c>
@@ -4429,104 +4429,104 @@
       <c r="V34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X34" s="11" t="s">
-        <v>58</v>
+      <c r="W34" s="11">
+        <v>28</v>
+      </c>
+      <c r="X34" s="11">
+        <v>41</v>
       </c>
       <c r="Y34" s="11">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Z34" s="11">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AA34" s="11">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="AB34" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AC34" s="11">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="AD34" s="11">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AE34" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF34" s="11">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AG34" s="11">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="AH34" s="11">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AI34" s="11">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AJ34" s="11">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AK34" s="11">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AL34" s="11">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="AM34" s="11">
-        <v>145</v>
+        <v>261</v>
       </c>
       <c r="AN34" s="11">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="AO34" s="11">
-        <v>261</v>
+        <v>67</v>
       </c>
       <c r="AP34" s="11">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="AQ34" s="11">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="AR34" s="11">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AS34" s="11">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="AT34" s="11">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="AU34" s="11">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AV34" s="11">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="AW34" s="11">
         <v>33</v>
       </c>
       <c r="AX34" s="11">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="AY34" s="11">
-        <v>33</v>
+        <v>185</v>
       </c>
       <c r="AZ34" s="11">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="BA34" s="11">
-        <v>185</v>
+        <v>59</v>
       </c>
       <c r="BB34" s="11">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>59</v>
       </c>
@@ -4588,75 +4588,75 @@
       <c r="V35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W35" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X35" s="13" t="s">
-        <v>58</v>
+      <c r="W35" s="13">
+        <v>739</v>
+      </c>
+      <c r="X35" s="13">
+        <v>715</v>
       </c>
       <c r="Y35" s="13">
-        <v>739</v>
+        <v>1030</v>
       </c>
       <c r="Z35" s="13">
-        <v>715</v>
+        <v>2699</v>
       </c>
       <c r="AA35" s="13">
-        <v>1030</v>
+        <v>1078</v>
       </c>
       <c r="AB35" s="13">
-        <v>2699</v>
+        <v>517</v>
       </c>
       <c r="AC35" s="13">
-        <v>1078</v>
+        <v>490</v>
       </c>
       <c r="AD35" s="13">
-        <v>517</v>
+        <v>833</v>
       </c>
       <c r="AE35" s="13">
-        <v>490</v>
+        <v>890</v>
       </c>
       <c r="AF35" s="13">
-        <v>833</v>
+        <v>893</v>
       </c>
       <c r="AG35" s="13">
-        <v>890</v>
+        <v>1646</v>
       </c>
       <c r="AH35" s="13">
-        <v>893</v>
+        <v>2297</v>
       </c>
       <c r="AI35" s="13">
+        <v>1341</v>
+      </c>
+      <c r="AJ35" s="13">
+        <v>2709</v>
+      </c>
+      <c r="AK35" s="13">
         <v>1646</v>
       </c>
-      <c r="AJ35" s="13">
-        <v>2297</v>
-      </c>
-      <c r="AK35" s="13">
-        <v>1341</v>
-      </c>
       <c r="AL35" s="13">
-        <v>2709</v>
+        <v>2076</v>
       </c>
       <c r="AM35" s="13">
-        <v>1646</v>
+        <v>2024</v>
       </c>
       <c r="AN35" s="13">
-        <v>2076</v>
+        <v>1519</v>
       </c>
       <c r="AO35" s="13">
-        <v>2024</v>
+        <v>1859</v>
       </c>
       <c r="AP35" s="13">
-        <v>1519</v>
+        <v>1372</v>
       </c>
       <c r="AQ35" s="13">
-        <v>1859</v>
-      </c>
-      <c r="AR35" s="13">
-        <v>1372</v>
-      </c>
-      <c r="AS35" s="13">
         <v>749</v>
       </c>
+      <c r="AR35" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS35" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT35" s="13" t="s">
         <v>58</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>60</v>
       </c>
@@ -4747,75 +4747,75 @@
       <c r="V36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W36" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X36" s="11" t="s">
-        <v>58</v>
+      <c r="W36" s="11">
+        <v>855</v>
+      </c>
+      <c r="X36" s="11">
+        <v>555</v>
       </c>
       <c r="Y36" s="11">
-        <v>855</v>
+        <v>797</v>
       </c>
       <c r="Z36" s="11">
-        <v>555</v>
+        <v>829</v>
       </c>
       <c r="AA36" s="11">
-        <v>797</v>
+        <v>752</v>
       </c>
       <c r="AB36" s="11">
-        <v>829</v>
+        <v>897</v>
       </c>
       <c r="AC36" s="11">
-        <v>752</v>
+        <v>956</v>
       </c>
       <c r="AD36" s="11">
-        <v>897</v>
+        <v>1061</v>
       </c>
       <c r="AE36" s="11">
-        <v>956</v>
+        <v>1172</v>
       </c>
       <c r="AF36" s="11">
-        <v>1061</v>
+        <v>872</v>
       </c>
       <c r="AG36" s="11">
-        <v>1172</v>
+        <v>789</v>
       </c>
       <c r="AH36" s="11">
-        <v>872</v>
+        <v>594</v>
       </c>
       <c r="AI36" s="11">
-        <v>789</v>
+        <v>561</v>
       </c>
       <c r="AJ36" s="11">
-        <v>594</v>
+        <v>671</v>
       </c>
       <c r="AK36" s="11">
-        <v>561</v>
+        <v>743</v>
       </c>
       <c r="AL36" s="11">
-        <v>671</v>
+        <v>820</v>
       </c>
       <c r="AM36" s="11">
-        <v>743</v>
+        <v>1157</v>
       </c>
       <c r="AN36" s="11">
-        <v>820</v>
+        <v>988</v>
       </c>
       <c r="AO36" s="11">
-        <v>1157</v>
+        <v>1490</v>
       </c>
       <c r="AP36" s="11">
-        <v>988</v>
+        <v>1054</v>
       </c>
       <c r="AQ36" s="11">
-        <v>1490</v>
-      </c>
-      <c r="AR36" s="11">
-        <v>1054</v>
-      </c>
-      <c r="AS36" s="11">
         <v>1078</v>
       </c>
+      <c r="AR36" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS36" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT36" s="11" t="s">
         <v>58</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
         <v>61</v>
       </c>
@@ -4969,11 +4969,11 @@
       <c r="AQ37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR37" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS37" s="13" t="s">
-        <v>58</v>
+      <c r="AR37" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS37" s="13">
+        <v>0</v>
       </c>
       <c r="AT37" s="13">
         <v>0</v>
@@ -4982,28 +4982,28 @@
         <v>0</v>
       </c>
       <c r="AV37" s="13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AW37" s="13">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="AX37" s="13">
-        <v>12</v>
+        <v>1236</v>
       </c>
       <c r="AY37" s="13">
-        <v>235</v>
+        <v>986</v>
       </c>
       <c r="AZ37" s="13">
-        <v>1236</v>
+        <v>355</v>
       </c>
       <c r="BA37" s="13">
-        <v>986</v>
+        <v>717</v>
       </c>
       <c r="BB37" s="13">
-        <v>355</v>
+        <v>297</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>62</v>
       </c>
@@ -5065,11 +5065,11 @@
       <c r="V38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X38" s="11" t="s">
-        <v>58</v>
+      <c r="W38" s="11">
+        <v>0</v>
+      </c>
+      <c r="X38" s="11">
+        <v>0</v>
       </c>
       <c r="Y38" s="11">
         <v>0</v>
@@ -5092,11 +5092,11 @@
       <c r="AE38" s="11">
         <v>0</v>
       </c>
-      <c r="AF38" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG38" s="11">
-        <v>0</v>
+      <c r="AF38" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG38" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH38" s="11" t="s">
         <v>58</v>
@@ -5162,7 +5162,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
         <v>63</v>
       </c>
@@ -5287,41 +5287,41 @@
       <c r="AQ39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR39" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS39" s="13" t="s">
-        <v>58</v>
+      <c r="AR39" s="13">
+        <v>847</v>
+      </c>
+      <c r="AS39" s="13">
+        <v>748</v>
       </c>
       <c r="AT39" s="13">
-        <v>847</v>
+        <v>622</v>
       </c>
       <c r="AU39" s="13">
-        <v>748</v>
+        <v>685</v>
       </c>
       <c r="AV39" s="13">
-        <v>622</v>
+        <v>733</v>
       </c>
       <c r="AW39" s="13">
-        <v>685</v>
+        <v>780</v>
       </c>
       <c r="AX39" s="13">
-        <v>733</v>
+        <v>901</v>
       </c>
       <c r="AY39" s="13">
-        <v>780</v>
+        <v>1024</v>
       </c>
       <c r="AZ39" s="13">
-        <v>901</v>
+        <v>1026</v>
       </c>
       <c r="BA39" s="13">
-        <v>1024</v>
+        <v>1059</v>
       </c>
       <c r="BB39" s="13">
-        <v>1026</v>
+        <v>1101</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>64</v>
       </c>
@@ -5446,41 +5446,41 @@
       <c r="AQ40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR40" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS40" s="11" t="s">
-        <v>58</v>
+      <c r="AR40" s="11">
+        <v>505</v>
+      </c>
+      <c r="AS40" s="11">
+        <v>616</v>
       </c>
       <c r="AT40" s="11">
-        <v>505</v>
+        <v>421</v>
       </c>
       <c r="AU40" s="11">
-        <v>616</v>
+        <v>849</v>
       </c>
       <c r="AV40" s="11">
-        <v>421</v>
+        <v>840</v>
       </c>
       <c r="AW40" s="11">
-        <v>849</v>
+        <v>925</v>
       </c>
       <c r="AX40" s="11">
-        <v>840</v>
+        <v>1092</v>
       </c>
       <c r="AY40" s="11">
-        <v>925</v>
+        <v>1215</v>
       </c>
       <c r="AZ40" s="11">
-        <v>1092</v>
+        <v>830</v>
       </c>
       <c r="BA40" s="11">
-        <v>1215</v>
+        <v>1336</v>
       </c>
       <c r="BB40" s="11">
-        <v>830</v>
+        <v>1214</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
         <v>74</v>
       </c>
@@ -5541,103 +5541,103 @@
         <v>0</v>
       </c>
       <c r="W41" s="15">
-        <v>0</v>
+        <v>1622</v>
       </c>
       <c r="X41" s="15">
-        <v>0</v>
+        <v>1311</v>
       </c>
       <c r="Y41" s="15">
-        <v>1622</v>
+        <v>1851</v>
       </c>
       <c r="Z41" s="15">
-        <v>1311</v>
+        <v>3563</v>
       </c>
       <c r="AA41" s="15">
-        <v>1851</v>
+        <v>1888</v>
       </c>
       <c r="AB41" s="15">
-        <v>3563</v>
+        <v>1450</v>
       </c>
       <c r="AC41" s="15">
-        <v>1888</v>
+        <v>1466</v>
       </c>
       <c r="AD41" s="15">
-        <v>1450</v>
+        <v>1924</v>
       </c>
       <c r="AE41" s="15">
-        <v>1466</v>
+        <v>2081</v>
       </c>
       <c r="AF41" s="15">
-        <v>1924</v>
+        <v>1802</v>
       </c>
       <c r="AG41" s="15">
-        <v>2081</v>
+        <v>2509</v>
       </c>
       <c r="AH41" s="15">
-        <v>1802</v>
+        <v>2966</v>
       </c>
       <c r="AI41" s="15">
-        <v>2509</v>
+        <v>1979</v>
       </c>
       <c r="AJ41" s="15">
-        <v>2966</v>
+        <v>3478</v>
       </c>
       <c r="AK41" s="15">
-        <v>1979</v>
+        <v>2534</v>
       </c>
       <c r="AL41" s="15">
-        <v>3478</v>
+        <v>3062</v>
       </c>
       <c r="AM41" s="15">
-        <v>2534</v>
+        <v>3442</v>
       </c>
       <c r="AN41" s="15">
-        <v>3062</v>
+        <v>2633</v>
       </c>
       <c r="AO41" s="15">
-        <v>3442</v>
+        <v>3416</v>
       </c>
       <c r="AP41" s="15">
-        <v>2633</v>
+        <v>2495</v>
       </c>
       <c r="AQ41" s="15">
-        <v>3416</v>
+        <v>1871</v>
       </c>
       <c r="AR41" s="15">
-        <v>2495</v>
+        <v>1415</v>
       </c>
       <c r="AS41" s="15">
-        <v>1871</v>
+        <v>1395</v>
       </c>
       <c r="AT41" s="15">
-        <v>1415</v>
+        <v>1056</v>
       </c>
       <c r="AU41" s="15">
-        <v>1395</v>
+        <v>1567</v>
       </c>
       <c r="AV41" s="15">
-        <v>1056</v>
+        <v>1640</v>
       </c>
       <c r="AW41" s="15">
-        <v>1567</v>
+        <v>1973</v>
       </c>
       <c r="AX41" s="15">
-        <v>1640</v>
+        <v>3313</v>
       </c>
       <c r="AY41" s="15">
-        <v>1973</v>
+        <v>3410</v>
       </c>
       <c r="AZ41" s="15">
-        <v>3313</v>
+        <v>2334</v>
       </c>
       <c r="BA41" s="15">
-        <v>3410</v>
+        <v>3171</v>
       </c>
       <c r="BB41" s="15">
-        <v>2334</v>
+        <v>2628</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="16" t="s">
         <v>75</v>
       </c>
@@ -5694,7 +5694,7 @@
       <c r="BA42" s="17"/>
       <c r="BB42" s="17"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="s">
         <v>76</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
         <v>68</v>
       </c>
@@ -5908,7 +5908,7 @@
       <c r="BA44" s="9"/>
       <c r="BB44" s="9"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>56</v>
       </c>
@@ -5970,11 +5970,11 @@
       <c r="V45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X45" s="11" t="s">
-        <v>58</v>
+      <c r="W45" s="11">
+        <v>0</v>
+      </c>
+      <c r="X45" s="11">
+        <v>0</v>
       </c>
       <c r="Y45" s="11">
         <v>0</v>
@@ -5994,11 +5994,11 @@
       <c r="AD45" s="11">
         <v>0</v>
       </c>
-      <c r="AE45" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF45" s="11">
-        <v>0</v>
+      <c r="AE45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG45" s="11" t="s">
         <v>58</v>
@@ -6067,7 +6067,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>59</v>
       </c>
@@ -6129,11 +6129,11 @@
       <c r="V46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X46" s="13" t="s">
-        <v>58</v>
+      <c r="W46" s="13">
+        <v>0</v>
+      </c>
+      <c r="X46" s="13">
+        <v>0</v>
       </c>
       <c r="Y46" s="13">
         <v>0</v>
@@ -6153,11 +6153,11 @@
       <c r="AD46" s="13">
         <v>0</v>
       </c>
-      <c r="AE46" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF46" s="13">
-        <v>0</v>
+      <c r="AE46" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF46" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG46" s="13" t="s">
         <v>58</v>
@@ -6226,7 +6226,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>60</v>
       </c>
@@ -6288,11 +6288,11 @@
       <c r="V47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X47" s="11" t="s">
-        <v>58</v>
+      <c r="W47" s="11">
+        <v>0</v>
+      </c>
+      <c r="X47" s="11">
+        <v>0</v>
       </c>
       <c r="Y47" s="11">
         <v>0</v>
@@ -6312,11 +6312,11 @@
       <c r="AD47" s="11">
         <v>0</v>
       </c>
-      <c r="AE47" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF47" s="11">
-        <v>0</v>
+      <c r="AE47" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF47" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG47" s="11" t="s">
         <v>58</v>
@@ -6385,7 +6385,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
         <v>69</v>
       </c>
@@ -6510,8 +6510,8 @@
       <c r="AQ48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR48" s="13">
-        <v>0</v>
+      <c r="AR48" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS48" s="13" t="s">
         <v>58</v>
@@ -6544,7 +6544,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="s">
         <v>70</v>
       </c>
@@ -6604,11 +6604,11 @@
       <c r="V49" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="W49" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="X49" s="19" t="s">
-        <v>58</v>
+      <c r="W49" s="19">
+        <v>0</v>
+      </c>
+      <c r="X49" s="19">
+        <v>0</v>
       </c>
       <c r="Y49" s="19">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="AR49" s="19">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="AS49" s="19">
         <v>0</v>
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
         <v>77</v>
       </c>
@@ -6758,7 +6758,7 @@
       <c r="BA50" s="9"/>
       <c r="BB50" s="9"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>56</v>
       </c>
@@ -6820,17 +6820,17 @@
       <c r="V51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X51" s="11" t="s">
-        <v>58</v>
+      <c r="W51" s="11">
+        <v>1</v>
+      </c>
+      <c r="X51" s="11">
+        <v>2</v>
       </c>
       <c r="Y51" s="11">
         <v>1</v>
       </c>
       <c r="Z51" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA51" s="11">
         <v>1</v>
@@ -6839,7 +6839,7 @@
         <v>1</v>
       </c>
       <c r="AC51" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD51" s="11">
         <v>1</v>
@@ -6848,19 +6848,19 @@
         <v>0</v>
       </c>
       <c r="AF51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="11">
         <v>1</v>
       </c>
-      <c r="AG51" s="11">
-        <v>0</v>
-      </c>
       <c r="AH51" s="11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AI51" s="11">
-        <v>1</v>
-      </c>
-      <c r="AJ51" s="11">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="AJ51" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK51" s="11">
         <v>0</v>
@@ -6871,29 +6871,29 @@
       <c r="AM51" s="11">
         <v>0</v>
       </c>
-      <c r="AN51" s="11" t="s">
-        <v>58</v>
+      <c r="AN51" s="11">
+        <v>0</v>
       </c>
       <c r="AO51" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP51" s="11">
         <v>0</v>
       </c>
       <c r="AQ51" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR51" s="11">
         <v>0</v>
       </c>
       <c r="AS51" s="11">
-        <v>4</v>
-      </c>
-      <c r="AT51" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU51" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AT51" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU51" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV51" s="11" t="s">
         <v>58</v>
@@ -6917,7 +6917,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
         <v>59</v>
       </c>
@@ -6979,75 +6979,75 @@
       <c r="V52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X52" s="13" t="s">
-        <v>58</v>
+      <c r="W52" s="13">
+        <v>9</v>
+      </c>
+      <c r="X52" s="13">
+        <v>3</v>
       </c>
       <c r="Y52" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z52" s="13">
+        <v>23</v>
+      </c>
+      <c r="AA52" s="13">
+        <v>20</v>
+      </c>
+      <c r="AB52" s="13">
+        <v>32</v>
+      </c>
+      <c r="AC52" s="13">
+        <v>13</v>
+      </c>
+      <c r="AD52" s="13">
+        <v>3</v>
+      </c>
+      <c r="AE52" s="13">
+        <v>3</v>
+      </c>
+      <c r="AF52" s="13">
+        <v>12</v>
+      </c>
+      <c r="AG52" s="13">
+        <v>33</v>
+      </c>
+      <c r="AH52" s="13">
+        <v>19</v>
+      </c>
+      <c r="AI52" s="13">
+        <v>59</v>
+      </c>
+      <c r="AJ52" s="13">
         <v>9</v>
       </c>
-      <c r="Z52" s="13">
-        <v>3</v>
-      </c>
-      <c r="AA52" s="13">
-        <v>4</v>
-      </c>
-      <c r="AB52" s="13">
-        <v>23</v>
-      </c>
-      <c r="AC52" s="13">
-        <v>20</v>
-      </c>
-      <c r="AD52" s="13">
-        <v>32</v>
-      </c>
-      <c r="AE52" s="13">
-        <v>13</v>
-      </c>
-      <c r="AF52" s="13">
-        <v>3</v>
-      </c>
-      <c r="AG52" s="13">
-        <v>3</v>
-      </c>
-      <c r="AH52" s="13">
-        <v>12</v>
-      </c>
-      <c r="AI52" s="13">
-        <v>33</v>
-      </c>
-      <c r="AJ52" s="13">
-        <v>19</v>
-      </c>
       <c r="AK52" s="13">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="AL52" s="13">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="AM52" s="13">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="AN52" s="13">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AO52" s="13">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="AP52" s="13">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="AQ52" s="13">
-        <v>7</v>
-      </c>
-      <c r="AR52" s="13">
-        <v>2</v>
-      </c>
-      <c r="AS52" s="13">
         <v>24</v>
       </c>
+      <c r="AR52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS52" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT52" s="13" t="s">
         <v>58</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>60</v>
       </c>
@@ -7138,59 +7138,59 @@
       <c r="V53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X53" s="11" t="s">
-        <v>58</v>
+      <c r="W53" s="11">
+        <v>3</v>
+      </c>
+      <c r="X53" s="11">
+        <v>2</v>
       </c>
       <c r="Y53" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z53" s="11">
         <v>2</v>
       </c>
       <c r="AA53" s="11">
+        <v>5</v>
+      </c>
+      <c r="AB53" s="11">
+        <v>3</v>
+      </c>
+      <c r="AC53" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="11">
+        <v>26</v>
+      </c>
+      <c r="AE53" s="11">
+        <v>9</v>
+      </c>
+      <c r="AF53" s="11">
+        <v>3</v>
+      </c>
+      <c r="AG53" s="11">
         <v>1</v>
       </c>
-      <c r="AB53" s="11">
+      <c r="AH53" s="11">
+        <v>4</v>
+      </c>
+      <c r="AI53" s="11">
         <v>2</v>
       </c>
-      <c r="AC53" s="11">
-        <v>5</v>
-      </c>
-      <c r="AD53" s="11">
-        <v>3</v>
-      </c>
-      <c r="AE53" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF53" s="11">
-        <v>26</v>
-      </c>
-      <c r="AG53" s="11">
-        <v>9</v>
-      </c>
-      <c r="AH53" s="11">
-        <v>3</v>
-      </c>
-      <c r="AI53" s="11">
-        <v>1</v>
-      </c>
       <c r="AJ53" s="11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK53" s="11">
-        <v>2</v>
-      </c>
-      <c r="AL53" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AL53" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM53" s="11">
         <v>0</v>
       </c>
-      <c r="AN53" s="11" t="s">
-        <v>58</v>
+      <c r="AN53" s="11">
+        <v>0</v>
       </c>
       <c r="AO53" s="11">
         <v>0</v>
@@ -7201,11 +7201,11 @@
       <c r="AQ53" s="11">
         <v>0</v>
       </c>
-      <c r="AR53" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS53" s="11">
-        <v>0</v>
+      <c r="AR53" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS53" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT53" s="11" t="s">
         <v>58</v>
@@ -7235,7 +7235,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>61</v>
       </c>
@@ -7372,29 +7372,29 @@
       <c r="AU54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV54" s="13" t="s">
-        <v>58</v>
+      <c r="AV54" s="13">
+        <v>1</v>
       </c>
       <c r="AW54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX54" s="13">
+      <c r="AX54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY54" s="13">
         <v>1</v>
       </c>
-      <c r="AY54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ54" s="13" t="s">
-        <v>58</v>
+      <c r="AZ54" s="13">
+        <v>2</v>
       </c>
       <c r="BA54" s="13">
-        <v>1</v>
-      </c>
-      <c r="BB54" s="13" t="s">
-        <v>58</v>
+        <v>4</v>
+      </c>
+      <c r="BB54" s="13">
+        <v>33</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>63</v>
       </c>
@@ -7519,17 +7519,17 @@
       <c r="AQ55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT55" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU55" s="11">
-        <v>0</v>
+      <c r="AR55" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS55" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT55" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU55" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV55" s="11" t="s">
         <v>58</v>
@@ -7543,8 +7543,8 @@
       <c r="AY55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AZ55" s="11" t="s">
-        <v>58</v>
+      <c r="AZ55" s="11">
+        <v>1</v>
       </c>
       <c r="BA55" s="11" t="s">
         <v>58</v>
@@ -7553,7 +7553,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>64</v>
       </c>
@@ -7678,41 +7678,41 @@
       <c r="AQ56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR56" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS56" s="13" t="s">
-        <v>58</v>
+      <c r="AR56" s="13">
+        <v>32</v>
+      </c>
+      <c r="AS56" s="13">
+        <v>35</v>
       </c>
       <c r="AT56" s="13">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="AU56" s="13">
-        <v>35</v>
-      </c>
-      <c r="AV56" s="13">
-        <v>8</v>
-      </c>
-      <c r="AW56" s="13">
         <v>3</v>
       </c>
-      <c r="AX56" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY56" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ56" s="13">
+      <c r="AV56" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW56" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX56" s="13">
         <v>1</v>
       </c>
-      <c r="BA56" s="13">
+      <c r="AY56" s="13">
         <v>2</v>
       </c>
-      <c r="BB56" s="13" t="s">
-        <v>58</v>
+      <c r="AZ56" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA56" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB56" s="13">
+        <v>29</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="18" t="s">
         <v>78</v>
       </c>
@@ -7772,104 +7772,104 @@
       <c r="V57" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="W57" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="X57" s="19" t="s">
-        <v>58</v>
+      <c r="W57" s="19">
+        <v>13</v>
+      </c>
+      <c r="X57" s="19">
+        <v>7</v>
       </c>
       <c r="Y57" s="19">
+        <v>6</v>
+      </c>
+      <c r="Z57" s="19">
+        <v>26</v>
+      </c>
+      <c r="AA57" s="19">
+        <v>26</v>
+      </c>
+      <c r="AB57" s="19">
+        <v>36</v>
+      </c>
+      <c r="AC57" s="19">
         <v>13</v>
       </c>
-      <c r="Z57" s="19">
-        <v>7</v>
-      </c>
-      <c r="AA57" s="19">
-        <v>6</v>
-      </c>
-      <c r="AB57" s="19">
-        <v>26</v>
-      </c>
-      <c r="AC57" s="19">
-        <v>26</v>
-      </c>
       <c r="AD57" s="19">
+        <v>30</v>
+      </c>
+      <c r="AE57" s="19">
+        <v>12</v>
+      </c>
+      <c r="AF57" s="19">
+        <v>15</v>
+      </c>
+      <c r="AG57" s="19">
+        <v>35</v>
+      </c>
+      <c r="AH57" s="19">
+        <v>35</v>
+      </c>
+      <c r="AI57" s="19">
+        <v>61</v>
+      </c>
+      <c r="AJ57" s="19">
+        <v>9</v>
+      </c>
+      <c r="AK57" s="19">
+        <v>5</v>
+      </c>
+      <c r="AL57" s="19">
+        <v>55</v>
+      </c>
+      <c r="AM57" s="19">
+        <v>110</v>
+      </c>
+      <c r="AN57" s="19">
         <v>36</v>
       </c>
-      <c r="AE57" s="19">
-        <v>13</v>
-      </c>
-      <c r="AF57" s="19">
-        <v>30</v>
-      </c>
-      <c r="AG57" s="19">
-        <v>12</v>
-      </c>
-      <c r="AH57" s="19">
-        <v>15</v>
-      </c>
-      <c r="AI57" s="19">
+      <c r="AO57" s="19">
+        <v>10</v>
+      </c>
+      <c r="AP57" s="19">
+        <v>2</v>
+      </c>
+      <c r="AQ57" s="19">
+        <v>28</v>
+      </c>
+      <c r="AR57" s="19">
+        <v>32</v>
+      </c>
+      <c r="AS57" s="19">
         <v>35</v>
       </c>
-      <c r="AJ57" s="19">
-        <v>35</v>
-      </c>
-      <c r="AK57" s="19">
-        <v>61</v>
-      </c>
-      <c r="AL57" s="19">
-        <v>9</v>
-      </c>
-      <c r="AM57" s="19">
-        <v>5</v>
-      </c>
-      <c r="AN57" s="19">
-        <v>55</v>
-      </c>
-      <c r="AO57" s="19">
-        <v>110</v>
-      </c>
-      <c r="AP57" s="19">
-        <v>36</v>
-      </c>
-      <c r="AQ57" s="19">
-        <v>10</v>
-      </c>
-      <c r="AR57" s="19">
-        <v>2</v>
-      </c>
-      <c r="AS57" s="19">
-        <v>28</v>
-      </c>
       <c r="AT57" s="19">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="AU57" s="19">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="AV57" s="19">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AW57" s="19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AX57" s="19">
         <v>1</v>
       </c>
       <c r="AY57" s="19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AZ57" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA57" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB57" s="19">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="14" t="s">
         <v>71</v>
       </c>
@@ -7930,103 +7930,103 @@
         <v>0</v>
       </c>
       <c r="W58" s="15">
-        <v>0</v>
+        <v>1635</v>
       </c>
       <c r="X58" s="15">
-        <v>0</v>
+        <v>1318</v>
       </c>
       <c r="Y58" s="15">
-        <v>1635</v>
+        <v>1857</v>
       </c>
       <c r="Z58" s="15">
-        <v>1318</v>
+        <v>3589</v>
       </c>
       <c r="AA58" s="15">
-        <v>1857</v>
+        <v>1914</v>
       </c>
       <c r="AB58" s="15">
-        <v>3589</v>
+        <v>1486</v>
       </c>
       <c r="AC58" s="15">
-        <v>1914</v>
+        <v>1479</v>
       </c>
       <c r="AD58" s="15">
-        <v>1486</v>
+        <v>1954</v>
       </c>
       <c r="AE58" s="15">
-        <v>1479</v>
+        <v>2093</v>
       </c>
       <c r="AF58" s="15">
-        <v>1954</v>
+        <v>1817</v>
       </c>
       <c r="AG58" s="15">
-        <v>2093</v>
+        <v>2544</v>
       </c>
       <c r="AH58" s="15">
-        <v>1817</v>
+        <v>3001</v>
       </c>
       <c r="AI58" s="15">
-        <v>2544</v>
+        <v>2040</v>
       </c>
       <c r="AJ58" s="15">
-        <v>3001</v>
+        <v>3487</v>
       </c>
       <c r="AK58" s="15">
-        <v>2040</v>
+        <v>2539</v>
       </c>
       <c r="AL58" s="15">
-        <v>3487</v>
+        <v>3117</v>
       </c>
       <c r="AM58" s="15">
-        <v>2539</v>
+        <v>3552</v>
       </c>
       <c r="AN58" s="15">
-        <v>3117</v>
+        <v>2669</v>
       </c>
       <c r="AO58" s="15">
-        <v>3552</v>
+        <v>3426</v>
       </c>
       <c r="AP58" s="15">
-        <v>2669</v>
+        <v>2497</v>
       </c>
       <c r="AQ58" s="15">
-        <v>3426</v>
+        <v>1899</v>
       </c>
       <c r="AR58" s="15">
-        <v>2497</v>
+        <v>1447</v>
       </c>
       <c r="AS58" s="15">
-        <v>1899</v>
+        <v>1430</v>
       </c>
       <c r="AT58" s="15">
-        <v>1447</v>
+        <v>1064</v>
       </c>
       <c r="AU58" s="15">
-        <v>1430</v>
+        <v>1570</v>
       </c>
       <c r="AV58" s="15">
-        <v>1064</v>
+        <v>1641</v>
       </c>
       <c r="AW58" s="15">
-        <v>1570</v>
+        <v>1973</v>
       </c>
       <c r="AX58" s="15">
-        <v>1641</v>
+        <v>3314</v>
       </c>
       <c r="AY58" s="15">
-        <v>1973</v>
+        <v>3413</v>
       </c>
       <c r="AZ58" s="15">
-        <v>3314</v>
+        <v>2337</v>
       </c>
       <c r="BA58" s="15">
-        <v>3413</v>
+        <v>3175</v>
       </c>
       <c r="BB58" s="15">
-        <v>2334</v>
+        <v>2690</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -8081,7 +8081,7 @@
       <c r="BA59" s="1"/>
       <c r="BB59" s="1"/>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -8136,7 +8136,7 @@
       <c r="BA60" s="1"/>
       <c r="BB60" s="1"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -8191,7 +8191,7 @@
       <c r="BA61" s="1"/>
       <c r="BB61" s="1"/>
     </row>
-    <row r="62" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
         <v>79</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -8403,7 +8403,7 @@
       <c r="BA63" s="1"/>
       <c r="BB63" s="1"/>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
         <v>80</v>
       </c>
@@ -8460,7 +8460,7 @@
       <c r="BA64" s="9"/>
       <c r="BB64" s="9"/>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>56</v>
       </c>
@@ -8522,104 +8522,104 @@
       <c r="V65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W65" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X65" s="11" t="s">
-        <v>58</v>
+      <c r="W65" s="11">
+        <v>2526</v>
+      </c>
+      <c r="X65" s="11">
+        <v>3746</v>
       </c>
       <c r="Y65" s="11">
-        <v>2526</v>
+        <v>2357</v>
       </c>
       <c r="Z65" s="11">
+        <v>2890</v>
+      </c>
+      <c r="AA65" s="11">
+        <v>3364</v>
+      </c>
+      <c r="AB65" s="11">
+        <v>2674</v>
+      </c>
+      <c r="AC65" s="11">
+        <v>1872</v>
+      </c>
+      <c r="AD65" s="11">
+        <v>2324</v>
+      </c>
+      <c r="AE65" s="11">
+        <v>1604</v>
+      </c>
+      <c r="AF65" s="11">
+        <v>1839</v>
+      </c>
+      <c r="AG65" s="11">
+        <v>2678</v>
+      </c>
+      <c r="AH65" s="11">
+        <v>2240</v>
+      </c>
+      <c r="AI65" s="11">
+        <v>1961</v>
+      </c>
+      <c r="AJ65" s="11">
+        <v>2253</v>
+      </c>
+      <c r="AK65" s="11">
+        <v>4175</v>
+      </c>
+      <c r="AL65" s="11">
+        <v>4843</v>
+      </c>
+      <c r="AM65" s="11">
+        <v>7553</v>
+      </c>
+      <c r="AN65" s="11">
         <v>3746</v>
       </c>
-      <c r="AA65" s="11">
-        <v>2357</v>
-      </c>
-      <c r="AB65" s="11">
-        <v>2890</v>
-      </c>
-      <c r="AC65" s="11">
-        <v>3364</v>
-      </c>
-      <c r="AD65" s="11">
-        <v>2674</v>
-      </c>
-      <c r="AE65" s="11">
-        <v>1872</v>
-      </c>
-      <c r="AF65" s="11">
-        <v>2324</v>
-      </c>
-      <c r="AG65" s="11">
-        <v>1604</v>
-      </c>
-      <c r="AH65" s="11">
-        <v>1839</v>
-      </c>
-      <c r="AI65" s="11">
-        <v>2678</v>
-      </c>
-      <c r="AJ65" s="11">
-        <v>2240</v>
-      </c>
-      <c r="AK65" s="11">
-        <v>1961</v>
-      </c>
-      <c r="AL65" s="11">
-        <v>2253</v>
-      </c>
-      <c r="AM65" s="11">
-        <v>4175</v>
-      </c>
-      <c r="AN65" s="11">
-        <v>4843</v>
-      </c>
       <c r="AO65" s="11">
-        <v>7553</v>
+        <v>2198</v>
       </c>
       <c r="AP65" s="11">
-        <v>3746</v>
+        <v>2250</v>
       </c>
       <c r="AQ65" s="11">
-        <v>2198</v>
+        <v>1370</v>
       </c>
       <c r="AR65" s="11">
-        <v>2250</v>
+        <v>2168</v>
       </c>
       <c r="AS65" s="11">
-        <v>1370</v>
+        <v>794</v>
       </c>
       <c r="AT65" s="11">
-        <v>2168</v>
+        <v>812</v>
       </c>
       <c r="AU65" s="11">
-        <v>794</v>
+        <v>1156</v>
       </c>
       <c r="AV65" s="11">
-        <v>812</v>
+        <v>2267</v>
       </c>
       <c r="AW65" s="11">
-        <v>1156</v>
+        <v>1669</v>
       </c>
       <c r="AX65" s="11">
-        <v>2267</v>
+        <v>3366</v>
       </c>
       <c r="AY65" s="11">
-        <v>1669</v>
+        <v>7477</v>
       </c>
       <c r="AZ65" s="11">
-        <v>3366</v>
+        <v>5050</v>
       </c>
       <c r="BA65" s="11">
-        <v>7477</v>
+        <v>2881</v>
       </c>
       <c r="BB65" s="11">
-        <v>5050</v>
+        <v>869</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
         <v>59</v>
       </c>
@@ -8681,75 +8681,75 @@
       <c r="V66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W66" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X66" s="13" t="s">
-        <v>58</v>
+      <c r="W66" s="13">
+        <v>78261</v>
+      </c>
+      <c r="X66" s="13">
+        <v>81210</v>
       </c>
       <c r="Y66" s="13">
-        <v>78261</v>
+        <v>115404</v>
       </c>
       <c r="Z66" s="13">
-        <v>81210</v>
+        <v>260735</v>
       </c>
       <c r="AA66" s="13">
-        <v>115404</v>
+        <v>127025</v>
       </c>
       <c r="AB66" s="13">
-        <v>260735</v>
+        <v>63093</v>
       </c>
       <c r="AC66" s="13">
-        <v>127025</v>
+        <v>60430</v>
       </c>
       <c r="AD66" s="13">
-        <v>63093</v>
+        <v>103642</v>
       </c>
       <c r="AE66" s="13">
-        <v>60430</v>
+        <v>113771</v>
       </c>
       <c r="AF66" s="13">
-        <v>103642</v>
+        <v>115053</v>
       </c>
       <c r="AG66" s="13">
-        <v>113771</v>
+        <v>189316</v>
       </c>
       <c r="AH66" s="13">
-        <v>115053</v>
+        <v>284063</v>
       </c>
       <c r="AI66" s="13">
-        <v>189316</v>
+        <v>210418</v>
       </c>
       <c r="AJ66" s="13">
-        <v>284063</v>
+        <v>391445</v>
       </c>
       <c r="AK66" s="13">
-        <v>210418</v>
+        <v>414663</v>
       </c>
       <c r="AL66" s="13">
-        <v>391445</v>
+        <v>462511</v>
       </c>
       <c r="AM66" s="13">
-        <v>414663</v>
+        <v>527092</v>
       </c>
       <c r="AN66" s="13">
-        <v>462511</v>
+        <v>376033</v>
       </c>
       <c r="AO66" s="13">
-        <v>527092</v>
+        <v>490529</v>
       </c>
       <c r="AP66" s="13">
-        <v>376033</v>
+        <v>353903</v>
       </c>
       <c r="AQ66" s="13">
-        <v>490529</v>
-      </c>
-      <c r="AR66" s="13">
-        <v>354112</v>
-      </c>
-      <c r="AS66" s="13">
         <v>192131</v>
       </c>
+      <c r="AR66" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS66" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT66" s="13" t="s">
         <v>58</v>
       </c>
@@ -8778,7 +8778,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
         <v>60</v>
       </c>
@@ -8840,75 +8840,75 @@
       <c r="V67" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W67" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X67" s="11" t="s">
-        <v>58</v>
+      <c r="W67" s="11">
+        <v>85101</v>
+      </c>
+      <c r="X67" s="11">
+        <v>58310</v>
       </c>
       <c r="Y67" s="11">
-        <v>85101</v>
+        <v>83824</v>
       </c>
       <c r="Z67" s="11">
-        <v>58310</v>
+        <v>94915</v>
       </c>
       <c r="AA67" s="11">
-        <v>83824</v>
+        <v>107496</v>
       </c>
       <c r="AB67" s="11">
-        <v>94915</v>
+        <v>131120</v>
       </c>
       <c r="AC67" s="11">
-        <v>107496</v>
+        <v>146204</v>
       </c>
       <c r="AD67" s="11">
-        <v>131120</v>
+        <v>164819</v>
       </c>
       <c r="AE67" s="11">
-        <v>146204</v>
+        <v>185554</v>
       </c>
       <c r="AF67" s="11">
-        <v>164819</v>
+        <v>149332</v>
       </c>
       <c r="AG67" s="11">
-        <v>185554</v>
+        <v>135439</v>
       </c>
       <c r="AH67" s="11">
-        <v>149332</v>
+        <v>103965</v>
       </c>
       <c r="AI67" s="11">
-        <v>135439</v>
+        <v>92687</v>
       </c>
       <c r="AJ67" s="11">
-        <v>103965</v>
+        <v>111338</v>
       </c>
       <c r="AK67" s="11">
-        <v>92687</v>
+        <v>125038</v>
       </c>
       <c r="AL67" s="11">
-        <v>111338</v>
+        <v>131340</v>
       </c>
       <c r="AM67" s="11">
-        <v>125038</v>
+        <v>197443</v>
       </c>
       <c r="AN67" s="11">
-        <v>131340</v>
+        <v>173477</v>
       </c>
       <c r="AO67" s="11">
-        <v>197443</v>
+        <v>288089</v>
       </c>
       <c r="AP67" s="11">
-        <v>173477</v>
+        <v>238298</v>
       </c>
       <c r="AQ67" s="11">
-        <v>288089</v>
-      </c>
-      <c r="AR67" s="11">
-        <v>238534</v>
-      </c>
-      <c r="AS67" s="11">
         <v>257384</v>
       </c>
+      <c r="AR67" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS67" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT67" s="11" t="s">
         <v>58</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
         <v>61</v>
       </c>
@@ -9062,11 +9062,11 @@
       <c r="AQ68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR68" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS68" s="13" t="s">
-        <v>58</v>
+      <c r="AR68" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS68" s="13">
+        <v>0</v>
       </c>
       <c r="AT68" s="13">
         <v>0</v>
@@ -9075,28 +9075,28 @@
         <v>0</v>
       </c>
       <c r="AV68" s="13">
-        <v>0</v>
+        <v>3725</v>
       </c>
       <c r="AW68" s="13">
-        <v>0</v>
+        <v>70010</v>
       </c>
       <c r="AX68" s="13">
-        <v>3725</v>
+        <v>281523</v>
       </c>
       <c r="AY68" s="13">
-        <v>70010</v>
+        <v>224619</v>
       </c>
       <c r="AZ68" s="13">
-        <v>281523</v>
+        <v>146582</v>
       </c>
       <c r="BA68" s="13">
-        <v>224619</v>
+        <v>186550</v>
       </c>
       <c r="BB68" s="13">
-        <v>86580</v>
+        <v>74590</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>62</v>
       </c>
@@ -9158,11 +9158,11 @@
       <c r="V69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W69" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X69" s="11" t="s">
-        <v>58</v>
+      <c r="W69" s="11">
+        <v>0</v>
+      </c>
+      <c r="X69" s="11">
+        <v>0</v>
       </c>
       <c r="Y69" s="11">
         <v>0</v>
@@ -9185,11 +9185,11 @@
       <c r="AE69" s="11">
         <v>0</v>
       </c>
-      <c r="AF69" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG69" s="11">
-        <v>0</v>
+      <c r="AF69" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG69" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH69" s="11" t="s">
         <v>58</v>
@@ -9255,7 +9255,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
         <v>63</v>
       </c>
@@ -9380,41 +9380,41 @@
       <c r="AQ70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR70" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS70" s="13" t="s">
-        <v>58</v>
+      <c r="AR70" s="13">
+        <v>214180</v>
+      </c>
+      <c r="AS70" s="13">
+        <v>219881</v>
       </c>
       <c r="AT70" s="13">
-        <v>214180</v>
+        <v>275089</v>
       </c>
       <c r="AU70" s="13">
-        <v>219881</v>
+        <v>308347</v>
       </c>
       <c r="AV70" s="13">
-        <v>275089</v>
+        <v>321477</v>
       </c>
       <c r="AW70" s="13">
-        <v>308347</v>
+        <v>330122</v>
       </c>
       <c r="AX70" s="13">
-        <v>321477</v>
+        <v>381943</v>
       </c>
       <c r="AY70" s="13">
-        <v>330122</v>
+        <v>432409</v>
       </c>
       <c r="AZ70" s="13">
-        <v>381943</v>
+        <v>441986</v>
       </c>
       <c r="BA70" s="13">
-        <v>432409</v>
+        <v>470295</v>
       </c>
       <c r="BB70" s="13">
-        <v>441986</v>
+        <v>510512</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>64</v>
       </c>
@@ -9539,41 +9539,41 @@
       <c r="AQ71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS71" s="11" t="s">
-        <v>58</v>
+      <c r="AR71" s="11">
+        <v>154852</v>
+      </c>
+      <c r="AS71" s="11">
+        <v>204585</v>
       </c>
       <c r="AT71" s="11">
-        <v>154852</v>
+        <v>172085</v>
       </c>
       <c r="AU71" s="11">
-        <v>204585</v>
+        <v>347752</v>
       </c>
       <c r="AV71" s="11">
-        <v>172085</v>
+        <v>337041</v>
       </c>
       <c r="AW71" s="11">
-        <v>347752</v>
+        <v>357282</v>
       </c>
       <c r="AX71" s="11">
-        <v>337041</v>
+        <v>407491</v>
       </c>
       <c r="AY71" s="11">
-        <v>357282</v>
+        <v>456072</v>
       </c>
       <c r="AZ71" s="11">
-        <v>407491</v>
+        <v>245796</v>
       </c>
       <c r="BA71" s="11">
-        <v>456072</v>
+        <v>490307</v>
       </c>
       <c r="BB71" s="11">
-        <v>305797</v>
+        <v>440520</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="14" t="s">
         <v>74</v>
       </c>
@@ -9634,103 +9634,103 @@
         <v>0</v>
       </c>
       <c r="W72" s="15">
-        <v>0</v>
+        <v>165888</v>
       </c>
       <c r="X72" s="15">
-        <v>0</v>
+        <v>143266</v>
       </c>
       <c r="Y72" s="15">
-        <v>165888</v>
+        <v>201585</v>
       </c>
       <c r="Z72" s="15">
-        <v>143266</v>
+        <v>358540</v>
       </c>
       <c r="AA72" s="15">
-        <v>201585</v>
+        <v>237885</v>
       </c>
       <c r="AB72" s="15">
-        <v>358540</v>
+        <v>196887</v>
       </c>
       <c r="AC72" s="15">
-        <v>237885</v>
+        <v>208506</v>
       </c>
       <c r="AD72" s="15">
-        <v>196887</v>
+        <v>270785</v>
       </c>
       <c r="AE72" s="15">
-        <v>208506</v>
+        <v>300929</v>
       </c>
       <c r="AF72" s="15">
-        <v>270785</v>
+        <v>266224</v>
       </c>
       <c r="AG72" s="15">
-        <v>300929</v>
+        <v>327433</v>
       </c>
       <c r="AH72" s="15">
-        <v>266224</v>
+        <v>390268</v>
       </c>
       <c r="AI72" s="15">
-        <v>327433</v>
+        <v>305066</v>
       </c>
       <c r="AJ72" s="15">
-        <v>390268</v>
+        <v>505036</v>
       </c>
       <c r="AK72" s="15">
-        <v>305066</v>
+        <v>543876</v>
       </c>
       <c r="AL72" s="15">
-        <v>505036</v>
+        <v>598694</v>
       </c>
       <c r="AM72" s="15">
-        <v>543876</v>
+        <v>732088</v>
       </c>
       <c r="AN72" s="15">
-        <v>598694</v>
+        <v>553256</v>
       </c>
       <c r="AO72" s="15">
-        <v>732088</v>
+        <v>780816</v>
       </c>
       <c r="AP72" s="15">
-        <v>553256</v>
+        <v>594451</v>
       </c>
       <c r="AQ72" s="15">
-        <v>780816</v>
+        <v>450885</v>
       </c>
       <c r="AR72" s="15">
-        <v>594896</v>
+        <v>371200</v>
       </c>
       <c r="AS72" s="15">
-        <v>450885</v>
+        <v>425260</v>
       </c>
       <c r="AT72" s="15">
-        <v>371200</v>
+        <v>447986</v>
       </c>
       <c r="AU72" s="15">
-        <v>425260</v>
+        <v>657255</v>
       </c>
       <c r="AV72" s="15">
-        <v>447986</v>
+        <v>664510</v>
       </c>
       <c r="AW72" s="15">
-        <v>657255</v>
+        <v>759083</v>
       </c>
       <c r="AX72" s="15">
-        <v>664510</v>
+        <v>1074323</v>
       </c>
       <c r="AY72" s="15">
-        <v>759083</v>
+        <v>1120577</v>
       </c>
       <c r="AZ72" s="15">
-        <v>1074323</v>
+        <v>839414</v>
       </c>
       <c r="BA72" s="15">
-        <v>1120577</v>
+        <v>1150033</v>
       </c>
       <c r="BB72" s="15">
-        <v>839413</v>
+        <v>1026491</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="16" t="s">
         <v>82</v>
       </c>
@@ -9787,7 +9787,7 @@
       <c r="BA73" s="17"/>
       <c r="BB73" s="17"/>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="18" t="s">
         <v>76</v>
       </c>
@@ -9944,7 +9944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
         <v>83</v>
       </c>
@@ -10001,7 +10001,7 @@
       <c r="BA75" s="9"/>
       <c r="BB75" s="9"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
         <v>56</v>
       </c>
@@ -10063,11 +10063,11 @@
       <c r="V76" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W76" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X76" s="11" t="s">
-        <v>58</v>
+      <c r="W76" s="11">
+        <v>0</v>
+      </c>
+      <c r="X76" s="11">
+        <v>0</v>
       </c>
       <c r="Y76" s="11">
         <v>0</v>
@@ -10087,11 +10087,11 @@
       <c r="AD76" s="11">
         <v>0</v>
       </c>
-      <c r="AE76" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF76" s="11">
-        <v>0</v>
+      <c r="AE76" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF76" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG76" s="11" t="s">
         <v>58</v>
@@ -10160,7 +10160,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="12" t="s">
         <v>59</v>
       </c>
@@ -10222,11 +10222,11 @@
       <c r="V77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W77" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X77" s="13" t="s">
-        <v>58</v>
+      <c r="W77" s="13">
+        <v>0</v>
+      </c>
+      <c r="X77" s="13">
+        <v>0</v>
       </c>
       <c r="Y77" s="13">
         <v>0</v>
@@ -10246,11 +10246,11 @@
       <c r="AD77" s="13">
         <v>0</v>
       </c>
-      <c r="AE77" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF77" s="13">
-        <v>0</v>
+      <c r="AE77" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF77" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG77" s="13" t="s">
         <v>58</v>
@@ -10319,7 +10319,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
         <v>60</v>
       </c>
@@ -10381,11 +10381,11 @@
       <c r="V78" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W78" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X78" s="11" t="s">
-        <v>58</v>
+      <c r="W78" s="11">
+        <v>0</v>
+      </c>
+      <c r="X78" s="11">
+        <v>0</v>
       </c>
       <c r="Y78" s="11">
         <v>0</v>
@@ -10405,11 +10405,11 @@
       <c r="AD78" s="11">
         <v>0</v>
       </c>
-      <c r="AE78" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF78" s="11">
-        <v>0</v>
+      <c r="AE78" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF78" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG78" s="11" t="s">
         <v>58</v>
@@ -10478,7 +10478,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="12" t="s">
         <v>69</v>
       </c>
@@ -10600,14 +10600,14 @@
       <c r="AP79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ79" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR79" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS79" s="13">
-        <v>0</v>
+      <c r="AQ79" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR79" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS79" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT79" s="13" t="s">
         <v>58</v>
@@ -10627,17 +10627,17 @@
       <c r="AY79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ79" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA79" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB79" s="13" t="s">
-        <v>58</v>
+      <c r="AZ79" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA79" s="13">
+        <v>0</v>
+      </c>
+      <c r="BB79" s="13">
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="18" t="s">
         <v>70</v>
       </c>
@@ -10699,11 +10699,11 @@
       <c r="V80" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="W80" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="X80" s="19" t="s">
-        <v>58</v>
+      <c r="W80" s="19">
+        <v>0</v>
+      </c>
+      <c r="X80" s="19">
+        <v>0</v>
       </c>
       <c r="Y80" s="19">
         <v>0</v>
@@ -10763,7 +10763,7 @@
         <v>0</v>
       </c>
       <c r="AR80" s="19">
-        <v>27507</v>
+        <v>0</v>
       </c>
       <c r="AS80" s="19">
         <v>0</v>
@@ -10796,7 +10796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
         <v>84</v>
       </c>
@@ -10853,7 +10853,7 @@
       <c r="BA81" s="9"/>
       <c r="BB81" s="9"/>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
         <v>56</v>
       </c>
@@ -10915,47 +10915,47 @@
       <c r="V82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W82" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X82" s="11" t="s">
-        <v>58</v>
+      <c r="W82" s="11">
+        <v>-150</v>
+      </c>
+      <c r="X82" s="11">
+        <v>-207</v>
       </c>
       <c r="Y82" s="11">
-        <v>-150</v>
+        <v>-151</v>
       </c>
       <c r="Z82" s="11">
-        <v>-207</v>
+        <v>-164</v>
       </c>
       <c r="AA82" s="11">
-        <v>-151</v>
+        <v>-95</v>
       </c>
       <c r="AB82" s="11">
-        <v>-164</v>
+        <v>-39</v>
       </c>
       <c r="AC82" s="11">
-        <v>-95</v>
+        <v>0</v>
       </c>
       <c r="AD82" s="11">
-        <v>-39</v>
+        <v>-41</v>
       </c>
       <c r="AE82" s="11">
         <v>0</v>
       </c>
       <c r="AF82" s="11">
-        <v>-41</v>
+        <v>0</v>
       </c>
       <c r="AG82" s="11">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="AH82" s="11">
-        <v>0</v>
+        <v>-404</v>
       </c>
       <c r="AI82" s="11">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="AJ82" s="11">
-        <v>-404</v>
+        <v>0</v>
       </c>
       <c r="AK82" s="11">
         <v>0</v>
@@ -10964,55 +10964,55 @@
         <v>0</v>
       </c>
       <c r="AM82" s="11">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AN82" s="11">
         <v>0</v>
       </c>
       <c r="AO82" s="11">
+        <v>-75</v>
+      </c>
+      <c r="AP82" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ82" s="11">
+        <v>-129</v>
+      </c>
+      <c r="AR82" s="11">
+        <v>-20</v>
+      </c>
+      <c r="AS82" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT82" s="11">
         <v>-3</v>
       </c>
-      <c r="AP82" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ82" s="11">
-        <v>-75</v>
-      </c>
-      <c r="AR82" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS82" s="11">
-        <v>-129</v>
-      </c>
-      <c r="AT82" s="11">
-        <v>-20</v>
-      </c>
       <c r="AU82" s="11">
         <v>0</v>
       </c>
       <c r="AV82" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW82" s="11">
+        <v>-1</v>
+      </c>
+      <c r="AX82" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY82" s="11">
         <v>-3</v>
       </c>
-      <c r="AW82" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX82" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY82" s="11">
-        <v>-1</v>
-      </c>
       <c r="AZ82" s="11">
         <v>0</v>
       </c>
       <c r="BA82" s="11">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="BB82" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="12" t="s">
         <v>59</v>
       </c>
@@ -11074,75 +11074,75 @@
       <c r="V83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W83" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X83" s="13" t="s">
-        <v>58</v>
+      <c r="W83" s="13">
+        <v>-702</v>
+      </c>
+      <c r="X83" s="13">
+        <v>-330</v>
       </c>
       <c r="Y83" s="13">
-        <v>-702</v>
+        <v>-413</v>
       </c>
       <c r="Z83" s="13">
-        <v>-330</v>
+        <v>-1497</v>
       </c>
       <c r="AA83" s="13">
-        <v>-413</v>
+        <v>-1211</v>
       </c>
       <c r="AB83" s="13">
-        <v>-1497</v>
+        <v>-3439</v>
       </c>
       <c r="AC83" s="13">
-        <v>-1211</v>
+        <v>-912</v>
       </c>
       <c r="AD83" s="13">
-        <v>-3439</v>
+        <v>-150</v>
       </c>
       <c r="AE83" s="13">
-        <v>-912</v>
+        <v>-378</v>
       </c>
       <c r="AF83" s="13">
-        <v>-150</v>
+        <v>-1576</v>
       </c>
       <c r="AG83" s="13">
-        <v>-378</v>
+        <v>-4353</v>
       </c>
       <c r="AH83" s="13">
-        <v>-1576</v>
+        <v>-2830</v>
       </c>
       <c r="AI83" s="13">
-        <v>-4353</v>
+        <v>-10101</v>
       </c>
       <c r="AJ83" s="13">
-        <v>-2830</v>
+        <v>-589</v>
       </c>
       <c r="AK83" s="13">
-        <v>-10101</v>
+        <v>-440</v>
       </c>
       <c r="AL83" s="13">
-        <v>-589</v>
+        <v>-12138</v>
       </c>
       <c r="AM83" s="13">
-        <v>-440</v>
+        <v>-25315</v>
       </c>
       <c r="AN83" s="13">
-        <v>-12138</v>
+        <v>-8680</v>
       </c>
       <c r="AO83" s="13">
-        <v>-25315</v>
+        <v>-2044</v>
       </c>
       <c r="AP83" s="13">
-        <v>-8680</v>
+        <v>-280</v>
       </c>
       <c r="AQ83" s="13">
-        <v>-2044</v>
-      </c>
-      <c r="AR83" s="13">
-        <v>-280</v>
-      </c>
-      <c r="AS83" s="13">
         <v>-7164</v>
       </c>
+      <c r="AR83" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS83" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT83" s="13" t="s">
         <v>58</v>
       </c>
@@ -11171,7 +11171,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
         <v>60</v>
       </c>
@@ -11233,74 +11233,74 @@
       <c r="V84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W84" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X84" s="11" t="s">
-        <v>58</v>
+      <c r="W84" s="11">
+        <v>-261</v>
+      </c>
+      <c r="X84" s="11">
+        <v>-232</v>
       </c>
       <c r="Y84" s="11">
-        <v>-261</v>
+        <v>-123</v>
       </c>
       <c r="Z84" s="11">
-        <v>-232</v>
+        <v>-215</v>
       </c>
       <c r="AA84" s="11">
-        <v>-123</v>
+        <v>-537</v>
       </c>
       <c r="AB84" s="11">
-        <v>-215</v>
+        <v>-492</v>
       </c>
       <c r="AC84" s="11">
-        <v>-537</v>
+        <v>0</v>
       </c>
       <c r="AD84" s="11">
-        <v>-492</v>
+        <v>-4229</v>
       </c>
       <c r="AE84" s="11">
-        <v>0</v>
+        <v>-1007</v>
       </c>
       <c r="AF84" s="11">
-        <v>-4229</v>
+        <v>-432</v>
       </c>
       <c r="AG84" s="11">
-        <v>-1007</v>
+        <v>-310</v>
       </c>
       <c r="AH84" s="11">
-        <v>-432</v>
+        <v>-604</v>
       </c>
       <c r="AI84" s="11">
-        <v>-310</v>
+        <v>-318</v>
       </c>
       <c r="AJ84" s="11">
-        <v>-604</v>
+        <v>-6</v>
       </c>
       <c r="AK84" s="11">
-        <v>-318</v>
+        <v>-3</v>
       </c>
       <c r="AL84" s="11">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="AM84" s="11">
+        <v>-12</v>
+      </c>
+      <c r="AN84" s="11">
+        <v>-19</v>
+      </c>
+      <c r="AO84" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP84" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ84" s="11">
         <v>-3</v>
       </c>
-      <c r="AN84" s="11">
-        <v>-7</v>
-      </c>
-      <c r="AO84" s="11">
-        <v>-12</v>
-      </c>
-      <c r="AP84" s="11">
-        <v>-19</v>
-      </c>
-      <c r="AQ84" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR84" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS84" s="11">
-        <v>-3</v>
+      <c r="AR84" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS84" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT84" s="11" t="s">
         <v>58</v>
@@ -11330,7 +11330,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="12" t="s">
         <v>61</v>
       </c>
@@ -11467,29 +11467,29 @@
       <c r="AU85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV85" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW85" s="13" t="s">
-        <v>58</v>
+      <c r="AV85" s="13">
+        <v>-194</v>
+      </c>
+      <c r="AW85" s="13">
+        <v>0</v>
       </c>
       <c r="AX85" s="13">
-        <v>-194</v>
+        <v>-123</v>
       </c>
       <c r="AY85" s="13">
-        <v>0</v>
+        <v>-284</v>
       </c>
       <c r="AZ85" s="13">
-        <v>-123</v>
+        <v>-315</v>
       </c>
       <c r="BA85" s="13">
-        <v>-284</v>
+        <v>-1043</v>
       </c>
       <c r="BB85" s="13">
-        <v>0</v>
+        <v>-8833</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
         <v>63</v>
       </c>
@@ -11614,41 +11614,41 @@
       <c r="AQ86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR86" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS86" s="11" t="s">
-        <v>58</v>
+      <c r="AR86" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS86" s="11">
+        <v>0</v>
       </c>
       <c r="AT86" s="11">
-        <v>0</v>
+        <v>-78</v>
       </c>
       <c r="AU86" s="11">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AV86" s="11">
-        <v>-78</v>
+        <v>0</v>
       </c>
       <c r="AW86" s="11">
-        <v>-10</v>
+        <v>-22</v>
       </c>
       <c r="AX86" s="11">
-        <v>0</v>
+        <v>-36</v>
       </c>
       <c r="AY86" s="11">
-        <v>-22</v>
+        <v>-7</v>
       </c>
       <c r="AZ86" s="11">
-        <v>-36</v>
+        <v>-103</v>
       </c>
       <c r="BA86" s="11">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="BB86" s="11">
-        <v>-105</v>
+        <v>-6</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="12" t="s">
         <v>64</v>
       </c>
@@ -11773,41 +11773,41 @@
       <c r="AQ87" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR87" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS87" s="13" t="s">
-        <v>58</v>
+      <c r="AR87" s="13">
+        <v>-6565</v>
+      </c>
+      <c r="AS87" s="13">
+        <v>-7313</v>
       </c>
       <c r="AT87" s="13">
-        <v>-6565</v>
+        <v>-1635</v>
       </c>
       <c r="AU87" s="13">
-        <v>-7313</v>
+        <v>-1184</v>
       </c>
       <c r="AV87" s="13">
-        <v>-1635</v>
+        <v>-10</v>
       </c>
       <c r="AW87" s="13">
-        <v>-1184</v>
+        <v>0</v>
       </c>
       <c r="AX87" s="13">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="AY87" s="13">
-        <v>0</v>
+        <v>-1049</v>
       </c>
       <c r="AZ87" s="13">
-        <v>-30</v>
+        <v>-111</v>
       </c>
       <c r="BA87" s="13">
-        <v>-1049</v>
+        <v>-23</v>
       </c>
       <c r="BB87" s="13">
-        <v>-142</v>
+        <v>-10189</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="18" t="s">
         <v>78</v>
       </c>
@@ -11869,104 +11869,104 @@
       <c r="V88" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="W88" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="X88" s="19" t="s">
-        <v>58</v>
+      <c r="W88" s="19">
+        <v>-1113</v>
+      </c>
+      <c r="X88" s="19">
+        <v>-769</v>
       </c>
       <c r="Y88" s="19">
-        <v>-1113</v>
+        <v>-687</v>
       </c>
       <c r="Z88" s="19">
-        <v>-769</v>
+        <v>-1876</v>
       </c>
       <c r="AA88" s="19">
-        <v>-687</v>
+        <v>-1843</v>
       </c>
       <c r="AB88" s="19">
-        <v>-1876</v>
+        <v>-3970</v>
       </c>
       <c r="AC88" s="19">
-        <v>-1843</v>
+        <v>-912</v>
       </c>
       <c r="AD88" s="19">
-        <v>-3970</v>
+        <v>-4420</v>
       </c>
       <c r="AE88" s="19">
-        <v>-912</v>
+        <v>-1385</v>
       </c>
       <c r="AF88" s="19">
-        <v>-4420</v>
+        <v>-2008</v>
       </c>
       <c r="AG88" s="19">
-        <v>-1385</v>
+        <v>-4686</v>
       </c>
       <c r="AH88" s="19">
-        <v>-2008</v>
+        <v>-3838</v>
       </c>
       <c r="AI88" s="19">
-        <v>-4686</v>
+        <v>-10419</v>
       </c>
       <c r="AJ88" s="19">
-        <v>-3838</v>
+        <v>-595</v>
       </c>
       <c r="AK88" s="19">
-        <v>-10419</v>
+        <v>-443</v>
       </c>
       <c r="AL88" s="19">
-        <v>-595</v>
+        <v>-12145</v>
       </c>
       <c r="AM88" s="19">
-        <v>-443</v>
+        <v>-25330</v>
       </c>
       <c r="AN88" s="19">
-        <v>-12145</v>
+        <v>-8699</v>
       </c>
       <c r="AO88" s="19">
-        <v>-25330</v>
+        <v>-2119</v>
       </c>
       <c r="AP88" s="19">
-        <v>-8699</v>
+        <v>-280</v>
       </c>
       <c r="AQ88" s="19">
-        <v>-2119</v>
+        <v>-7296</v>
       </c>
       <c r="AR88" s="19">
-        <v>-280</v>
+        <v>-6585</v>
       </c>
       <c r="AS88" s="19">
-        <v>-7296</v>
+        <v>-7313</v>
       </c>
       <c r="AT88" s="19">
-        <v>-6585</v>
+        <v>-1716</v>
       </c>
       <c r="AU88" s="19">
-        <v>-7313</v>
+        <v>-1194</v>
       </c>
       <c r="AV88" s="19">
-        <v>-1716</v>
+        <v>-204</v>
       </c>
       <c r="AW88" s="19">
-        <v>-1194</v>
+        <v>-23</v>
       </c>
       <c r="AX88" s="19">
-        <v>-204</v>
+        <v>-189</v>
       </c>
       <c r="AY88" s="19">
-        <v>-23</v>
+        <v>-1343</v>
       </c>
       <c r="AZ88" s="19">
-        <v>-189</v>
+        <v>-529</v>
       </c>
       <c r="BA88" s="19">
-        <v>-1343</v>
+        <v>-1070</v>
       </c>
       <c r="BB88" s="19">
-        <v>-247</v>
+        <v>-19028</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
         <v>85</v>
       </c>
@@ -12023,7 +12023,7 @@
       <c r="BA89" s="9"/>
       <c r="BB89" s="9"/>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
         <v>86</v>
       </c>
@@ -12085,11 +12085,11 @@
       <c r="V90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W90" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X90" s="11" t="s">
-        <v>58</v>
+      <c r="W90" s="11">
+        <v>0</v>
+      </c>
+      <c r="X90" s="11">
+        <v>0</v>
       </c>
       <c r="Y90" s="11">
         <v>0</v>
@@ -12182,7 +12182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="14" t="s">
         <v>71</v>
       </c>
@@ -12243,103 +12243,103 @@
         <v>0</v>
       </c>
       <c r="W91" s="15">
-        <v>0</v>
+        <v>164775</v>
       </c>
       <c r="X91" s="15">
-        <v>0</v>
+        <v>142497</v>
       </c>
       <c r="Y91" s="15">
-        <v>164775</v>
+        <v>200898</v>
       </c>
       <c r="Z91" s="15">
-        <v>142497</v>
+        <v>356664</v>
       </c>
       <c r="AA91" s="15">
-        <v>200898</v>
+        <v>236042</v>
       </c>
       <c r="AB91" s="15">
-        <v>356664</v>
+        <v>192917</v>
       </c>
       <c r="AC91" s="15">
-        <v>236042</v>
+        <v>207594</v>
       </c>
       <c r="AD91" s="15">
-        <v>192917</v>
+        <v>266365</v>
       </c>
       <c r="AE91" s="15">
-        <v>207594</v>
+        <v>299544</v>
       </c>
       <c r="AF91" s="15">
-        <v>266365</v>
+        <v>264216</v>
       </c>
       <c r="AG91" s="15">
-        <v>299544</v>
+        <v>322747</v>
       </c>
       <c r="AH91" s="15">
-        <v>264216</v>
+        <v>386430</v>
       </c>
       <c r="AI91" s="15">
-        <v>322747</v>
+        <v>294647</v>
       </c>
       <c r="AJ91" s="15">
-        <v>386430</v>
+        <v>504441</v>
       </c>
       <c r="AK91" s="15">
-        <v>294647</v>
+        <v>543433</v>
       </c>
       <c r="AL91" s="15">
-        <v>504441</v>
+        <v>586549</v>
       </c>
       <c r="AM91" s="15">
-        <v>543433</v>
+        <v>706758</v>
       </c>
       <c r="AN91" s="15">
-        <v>586549</v>
+        <v>544557</v>
       </c>
       <c r="AO91" s="15">
-        <v>706758</v>
+        <v>778697</v>
       </c>
       <c r="AP91" s="15">
-        <v>544557</v>
+        <v>594171</v>
       </c>
       <c r="AQ91" s="15">
-        <v>778697</v>
+        <v>443589</v>
       </c>
       <c r="AR91" s="15">
-        <v>594616</v>
+        <v>364615</v>
       </c>
       <c r="AS91" s="15">
-        <v>443589</v>
+        <v>417947</v>
       </c>
       <c r="AT91" s="15">
-        <v>364615</v>
+        <v>446270</v>
       </c>
       <c r="AU91" s="15">
-        <v>417947</v>
+        <v>656061</v>
       </c>
       <c r="AV91" s="15">
-        <v>446270</v>
+        <v>664306</v>
       </c>
       <c r="AW91" s="15">
-        <v>656061</v>
+        <v>759060</v>
       </c>
       <c r="AX91" s="15">
-        <v>664306</v>
+        <v>1074134</v>
       </c>
       <c r="AY91" s="15">
-        <v>759060</v>
+        <v>1119234</v>
       </c>
       <c r="AZ91" s="15">
-        <v>1074134</v>
+        <v>838885</v>
       </c>
       <c r="BA91" s="15">
-        <v>1119234</v>
+        <v>1148963</v>
       </c>
       <c r="BB91" s="15">
-        <v>839166</v>
+        <v>1007463</v>
       </c>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -12394,7 +12394,7 @@
       <c r="BA92" s="1"/>
       <c r="BB92" s="1"/>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -12449,7 +12449,7 @@
       <c r="BA93" s="1"/>
       <c r="BB93" s="1"/>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -12504,7 +12504,7 @@
       <c r="BA94" s="1"/>
       <c r="BB94" s="1"/>
     </row>
-    <row r="95" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
         <v>87</v>
       </c>
@@ -12661,7 +12661,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -12716,7 +12716,7 @@
       <c r="BA96" s="1"/>
       <c r="BB96" s="1"/>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
         <v>88</v>
       </c>
@@ -12773,7 +12773,7 @@
       <c r="BA97" s="9"/>
       <c r="BB97" s="9"/>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
         <v>56</v>
       </c>
@@ -12835,104 +12835,104 @@
       <c r="V98" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W98" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X98" s="11" t="s">
-        <v>58</v>
+      <c r="W98" s="11">
+        <v>90214286</v>
+      </c>
+      <c r="X98" s="11">
+        <v>91365854</v>
       </c>
       <c r="Y98" s="11">
-        <v>90214286</v>
+        <v>98208333</v>
       </c>
       <c r="Z98" s="11">
-        <v>91365854</v>
+        <v>82571429</v>
       </c>
       <c r="AA98" s="11">
-        <v>98208333</v>
+        <v>58000000</v>
       </c>
       <c r="AB98" s="11">
-        <v>82571429</v>
+        <v>74277778</v>
       </c>
       <c r="AC98" s="11">
-        <v>58000000</v>
+        <v>93600000</v>
       </c>
       <c r="AD98" s="11">
-        <v>74277778</v>
+        <v>77466667</v>
       </c>
       <c r="AE98" s="11">
-        <v>93600000</v>
+        <v>84421053</v>
       </c>
       <c r="AF98" s="11">
-        <v>77466667</v>
+        <v>49702703</v>
       </c>
       <c r="AG98" s="11">
-        <v>84421053</v>
+        <v>36189189</v>
       </c>
       <c r="AH98" s="11">
-        <v>49702703</v>
+        <v>29866667</v>
       </c>
       <c r="AI98" s="11">
-        <v>36189189</v>
+        <v>25467532</v>
       </c>
       <c r="AJ98" s="11">
-        <v>29866667</v>
+        <v>22989796</v>
       </c>
       <c r="AK98" s="11">
-        <v>25467532</v>
+        <v>28793103</v>
       </c>
       <c r="AL98" s="11">
-        <v>22989796</v>
+        <v>29174699</v>
       </c>
       <c r="AM98" s="11">
-        <v>28793103</v>
+        <v>28938697</v>
       </c>
       <c r="AN98" s="11">
-        <v>29174699</v>
+        <v>29730159</v>
       </c>
       <c r="AO98" s="11">
-        <v>28938697</v>
+        <v>32805970</v>
       </c>
       <c r="AP98" s="11">
-        <v>29730159</v>
+        <v>32608696</v>
       </c>
       <c r="AQ98" s="11">
-        <v>32805970</v>
+        <v>31136364</v>
       </c>
       <c r="AR98" s="11">
-        <v>32608696</v>
+        <v>34412698</v>
       </c>
       <c r="AS98" s="11">
-        <v>31136364</v>
+        <v>25612903</v>
       </c>
       <c r="AT98" s="11">
-        <v>34412698</v>
+        <v>62461538</v>
       </c>
       <c r="AU98" s="11">
-        <v>25612903</v>
+        <v>35030303</v>
       </c>
       <c r="AV98" s="11">
-        <v>62461538</v>
+        <v>41218182</v>
       </c>
       <c r="AW98" s="11">
-        <v>35030303</v>
+        <v>50575758</v>
       </c>
       <c r="AX98" s="11">
-        <v>41218182</v>
+        <v>40071429</v>
       </c>
       <c r="AY98" s="11">
-        <v>50575758</v>
+        <v>40416216</v>
       </c>
       <c r="AZ98" s="11">
-        <v>40071429</v>
+        <v>41056911</v>
       </c>
       <c r="BA98" s="11">
-        <v>40416216</v>
+        <v>48830508</v>
       </c>
       <c r="BB98" s="11">
-        <v>41056911</v>
+        <v>54312500</v>
       </c>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B99" s="12" t="s">
         <v>59</v>
       </c>
@@ -12994,75 +12994,75 @@
       <c r="V99" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W99" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X99" s="13" t="s">
-        <v>58</v>
+      <c r="W99" s="13">
+        <v>105901218</v>
+      </c>
+      <c r="X99" s="13">
+        <v>113580420</v>
       </c>
       <c r="Y99" s="13">
-        <v>105901218</v>
+        <v>112042718</v>
       </c>
       <c r="Z99" s="13">
-        <v>113580420</v>
+        <v>96604298</v>
       </c>
       <c r="AA99" s="13">
-        <v>112042718</v>
+        <v>117833952</v>
       </c>
       <c r="AB99" s="13">
-        <v>96604298</v>
+        <v>122036750</v>
       </c>
       <c r="AC99" s="13">
-        <v>117833952</v>
+        <v>123326531</v>
       </c>
       <c r="AD99" s="13">
-        <v>122036750</v>
+        <v>124420168</v>
       </c>
       <c r="AE99" s="13">
-        <v>123326531</v>
+        <v>127832584</v>
       </c>
       <c r="AF99" s="13">
-        <v>124420168</v>
+        <v>128838746</v>
       </c>
       <c r="AG99" s="13">
-        <v>127832584</v>
+        <v>115015796</v>
       </c>
       <c r="AH99" s="13">
-        <v>128838746</v>
+        <v>123666957</v>
       </c>
       <c r="AI99" s="13">
-        <v>115015796</v>
+        <v>156911260</v>
       </c>
       <c r="AJ99" s="13">
-        <v>123666957</v>
+        <v>144497970</v>
       </c>
       <c r="AK99" s="13">
-        <v>156911260</v>
+        <v>251921628</v>
       </c>
       <c r="AL99" s="13">
-        <v>144497970</v>
+        <v>222789499</v>
       </c>
       <c r="AM99" s="13">
-        <v>251921628</v>
+        <v>260420949</v>
       </c>
       <c r="AN99" s="13">
-        <v>222789499</v>
+        <v>247552995</v>
       </c>
       <c r="AO99" s="13">
-        <v>260420949</v>
+        <v>263867133</v>
       </c>
       <c r="AP99" s="13">
-        <v>247552995</v>
+        <v>257946793</v>
       </c>
       <c r="AQ99" s="13">
-        <v>263867133</v>
-      </c>
-      <c r="AR99" s="13">
-        <v>257957576</v>
-      </c>
-      <c r="AS99" s="13">
         <v>256516689</v>
       </c>
+      <c r="AR99" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS99" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT99" s="13" t="s">
         <v>58</v>
       </c>
@@ -13091,7 +13091,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
         <v>60</v>
       </c>
@@ -13153,75 +13153,75 @@
       <c r="V100" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W100" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X100" s="11" t="s">
-        <v>58</v>
+      <c r="W100" s="11">
+        <v>99533333</v>
+      </c>
+      <c r="X100" s="11">
+        <v>105063063</v>
       </c>
       <c r="Y100" s="11">
-        <v>99533333</v>
+        <v>105174404</v>
       </c>
       <c r="Z100" s="11">
-        <v>105063063</v>
+        <v>114493366</v>
       </c>
       <c r="AA100" s="11">
-        <v>105174404</v>
+        <v>142946809</v>
       </c>
       <c r="AB100" s="11">
-        <v>114493366</v>
+        <v>146176143</v>
       </c>
       <c r="AC100" s="11">
-        <v>142946809</v>
+        <v>152933054</v>
       </c>
       <c r="AD100" s="11">
-        <v>146176143</v>
+        <v>155343073</v>
       </c>
       <c r="AE100" s="11">
-        <v>152933054</v>
+        <v>158322526</v>
       </c>
       <c r="AF100" s="11">
-        <v>155343073</v>
+        <v>171252294</v>
       </c>
       <c r="AG100" s="11">
-        <v>158322526</v>
+        <v>171659062</v>
       </c>
       <c r="AH100" s="11">
-        <v>171252294</v>
+        <v>175025253</v>
       </c>
       <c r="AI100" s="11">
-        <v>171659062</v>
+        <v>165217469</v>
       </c>
       <c r="AJ100" s="11">
-        <v>175025253</v>
+        <v>165928465</v>
       </c>
       <c r="AK100" s="11">
-        <v>165217469</v>
+        <v>168288022</v>
       </c>
       <c r="AL100" s="11">
-        <v>165928465</v>
+        <v>160170732</v>
       </c>
       <c r="AM100" s="11">
-        <v>168288022</v>
+        <v>170650821</v>
       </c>
       <c r="AN100" s="11">
-        <v>160170732</v>
+        <v>175584008</v>
       </c>
       <c r="AO100" s="11">
-        <v>170650821</v>
+        <v>193348322</v>
       </c>
       <c r="AP100" s="11">
-        <v>175584008</v>
+        <v>226089184</v>
       </c>
       <c r="AQ100" s="11">
-        <v>193348322</v>
-      </c>
-      <c r="AR100" s="11">
-        <v>226113417</v>
-      </c>
-      <c r="AS100" s="11">
         <v>238760668</v>
       </c>
+      <c r="AR100" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS100" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT100" s="11" t="s">
         <v>58</v>
       </c>
@@ -13250,7 +13250,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
         <v>61</v>
       </c>
@@ -13387,29 +13387,29 @@
       <c r="AU101" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV101" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW101" s="13" t="s">
-        <v>58</v>
+      <c r="AV101" s="13">
+        <v>310416667</v>
+      </c>
+      <c r="AW101" s="13">
+        <v>297914894</v>
       </c>
       <c r="AX101" s="13">
-        <v>310416667</v>
+        <v>227769417</v>
       </c>
       <c r="AY101" s="13">
-        <v>297914894</v>
+        <v>227808316</v>
       </c>
       <c r="AZ101" s="13">
-        <v>227769417</v>
+        <v>412907042</v>
       </c>
       <c r="BA101" s="13">
-        <v>227808316</v>
+        <v>260181311</v>
       </c>
       <c r="BB101" s="13">
-        <v>243887324</v>
+        <v>251144781</v>
       </c>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
         <v>63</v>
       </c>
@@ -13534,41 +13534,41 @@
       <c r="AQ102" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR102" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS102" s="11" t="s">
-        <v>58</v>
+      <c r="AR102" s="11">
+        <v>252868949</v>
+      </c>
+      <c r="AS102" s="11">
+        <v>293958556</v>
       </c>
       <c r="AT102" s="11">
-        <v>252868949</v>
+        <v>442265273</v>
       </c>
       <c r="AU102" s="11">
-        <v>293958556</v>
+        <v>450141606</v>
       </c>
       <c r="AV102" s="11">
-        <v>442265273</v>
+        <v>438577080</v>
       </c>
       <c r="AW102" s="11">
-        <v>450141606</v>
+        <v>423233333</v>
       </c>
       <c r="AX102" s="11">
-        <v>438577080</v>
+        <v>423910100</v>
       </c>
       <c r="AY102" s="11">
-        <v>423233333</v>
+        <v>422274414</v>
       </c>
       <c r="AZ102" s="11">
-        <v>423910100</v>
+        <v>430785575</v>
       </c>
       <c r="BA102" s="11">
-        <v>422274414</v>
+        <v>444093484</v>
       </c>
       <c r="BB102" s="11">
-        <v>430785575</v>
+        <v>463680291</v>
       </c>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B103" s="12" t="s">
         <v>64</v>
       </c>
@@ -13693,41 +13693,41 @@
       <c r="AQ103" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR103" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS103" s="13" t="s">
-        <v>58</v>
+      <c r="AR103" s="13">
+        <v>306637624</v>
+      </c>
+      <c r="AS103" s="13">
+        <v>332118506</v>
       </c>
       <c r="AT103" s="13">
-        <v>306637624</v>
+        <v>408752969</v>
       </c>
       <c r="AU103" s="13">
-        <v>332118506</v>
+        <v>409601885</v>
       </c>
       <c r="AV103" s="13">
-        <v>408752969</v>
+        <v>401239286</v>
       </c>
       <c r="AW103" s="13">
-        <v>409601885</v>
+        <v>386250811</v>
       </c>
       <c r="AX103" s="13">
-        <v>401239286</v>
+        <v>373160256</v>
       </c>
       <c r="AY103" s="13">
-        <v>386250811</v>
+        <v>375367901</v>
       </c>
       <c r="AZ103" s="13">
-        <v>373160256</v>
+        <v>296139759</v>
       </c>
       <c r="BA103" s="13">
-        <v>375367901</v>
+        <v>366996257</v>
       </c>
       <c r="BB103" s="13">
-        <v>368430120</v>
+        <v>362866557</v>
       </c>
     </row>
-    <row r="104" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="s">
         <v>90</v>
       </c>
@@ -13784,7 +13784,7 @@
       <c r="BA104" s="9"/>
       <c r="BB104" s="9"/>
     </row>
-    <row r="105" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
         <v>56</v>
       </c>
@@ -13846,11 +13846,11 @@
       <c r="V105" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W105" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X105" s="11" t="s">
-        <v>58</v>
+      <c r="W105" s="11">
+        <v>0</v>
+      </c>
+      <c r="X105" s="11">
+        <v>0</v>
       </c>
       <c r="Y105" s="11">
         <v>0</v>
@@ -13870,11 +13870,11 @@
       <c r="AD105" s="11">
         <v>0</v>
       </c>
-      <c r="AE105" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF105" s="11">
-        <v>0</v>
+      <c r="AE105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF105" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG105" s="11" t="s">
         <v>58</v>
@@ -13943,7 +13943,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="106" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B106" s="12" t="s">
         <v>59</v>
       </c>
@@ -14005,11 +14005,11 @@
       <c r="V106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W106" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X106" s="13" t="s">
-        <v>58</v>
+      <c r="W106" s="13">
+        <v>0</v>
+      </c>
+      <c r="X106" s="13">
+        <v>0</v>
       </c>
       <c r="Y106" s="13">
         <v>0</v>
@@ -14029,11 +14029,11 @@
       <c r="AD106" s="13">
         <v>0</v>
       </c>
-      <c r="AE106" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF106" s="13">
-        <v>0</v>
+      <c r="AE106" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF106" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG106" s="13" t="s">
         <v>58</v>
@@ -14102,7 +14102,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="107" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
         <v>60</v>
       </c>
@@ -14164,11 +14164,11 @@
       <c r="V107" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W107" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X107" s="11" t="s">
-        <v>58</v>
+      <c r="W107" s="11">
+        <v>0</v>
+      </c>
+      <c r="X107" s="11">
+        <v>0</v>
       </c>
       <c r="Y107" s="11">
         <v>0</v>
@@ -14188,11 +14188,11 @@
       <c r="AD107" s="11">
         <v>0</v>
       </c>
-      <c r="AE107" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF107" s="11">
-        <v>0</v>
+      <c r="AE107" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF107" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG107" s="11" t="s">
         <v>58</v>
@@ -14261,7 +14261,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="108" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B108" s="12" t="s">
         <v>69</v>
       </c>
@@ -14383,14 +14383,14 @@
       <c r="AP108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ108" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR108" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS108" s="13">
-        <v>0</v>
+      <c r="AQ108" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR108" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS108" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT108" s="13" t="s">
         <v>58</v>
@@ -14410,14 +14410,14 @@
       <c r="AY108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ108" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA108" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB108" s="13" t="s">
-        <v>58</v>
+      <c r="AZ108" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA108" s="13">
+        <v>0</v>
+      </c>
+      <c r="BB108" s="13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
